--- a/PhoenixCI/Excel_Template/30620.xlsx
+++ b/PhoenixCI/Excel_Template/30620.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3A0EB9C-1586-4FBA-BE31-79830C267565}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DDDE0D6-D5A0-4170-8748-48994661E1D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="震幅vs 波動度" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -367,7 +366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,16 +382,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -401,13 +400,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -416,10 +415,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -431,7 +430,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -443,26 +442,29 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -867,71 +869,71 @@
     <col min="19" max="20" width="8.875" style="1" customWidth="1"/>
     <col min="21" max="21" width="8.875" style="19" hidden="1" customWidth="1"/>
     <col min="22" max="24" width="8.875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="10.75" style="33" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="10.75" style="34" hidden="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="37"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="34" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="37"/>
     </row>
     <row r="3" spans="1:25" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1035,7 +1037,7 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
-      <c r="Y4" s="27"/>
+      <c r="Y4" s="32"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -1062,7 +1064,7 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
-      <c r="Y5" s="27"/>
+      <c r="Y5" s="32"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -1089,7 +1091,7 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
-      <c r="Y6" s="27"/>
+      <c r="Y6" s="32"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -1116,7 +1118,7 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="27"/>
+      <c r="Y7" s="32"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -1143,7 +1145,7 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
-      <c r="Y8" s="27"/>
+      <c r="Y8" s="32"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -1170,7 +1172,7 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
-      <c r="Y9" s="27"/>
+      <c r="Y9" s="32"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -1197,7 +1199,7 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="27"/>
+      <c r="Y10" s="32"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -1224,7 +1226,7 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="27"/>
+      <c r="Y11" s="32"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1251,7 +1253,7 @@
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
-      <c r="Y12" s="27"/>
+      <c r="Y12" s="32"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -1278,7 +1280,7 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="27"/>
+      <c r="Y13" s="32"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -1305,7 +1307,7 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="27"/>
+      <c r="Y14" s="32"/>
     </row>
     <row r="15" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
@@ -1683,7 +1685,7 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="27"/>
+      <c r="Y28" s="32"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -1710,7 +1712,7 @@
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
-      <c r="Y29" s="27"/>
+      <c r="Y29" s="32"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
@@ -1737,7 +1739,7 @@
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
-      <c r="Y30" s="27"/>
+      <c r="Y30" s="32"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -1764,7 +1766,7 @@
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
-      <c r="Y31" s="27"/>
+      <c r="Y31" s="32"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
@@ -1791,7 +1793,7 @@
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
-      <c r="Y32" s="27"/>
+      <c r="Y32" s="32"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
@@ -1818,7 +1820,7 @@
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
-      <c r="Y33" s="27"/>
+      <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
@@ -1845,7 +1847,7 @@
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
-      <c r="Y34" s="27"/>
+      <c r="Y34" s="32"/>
     </row>
     <row r="35" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -2631,33 +2633,33 @@
       <c r="Y63" s="27"/>
     </row>
     <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41"/>
-      <c r="R64" s="41"/>
-      <c r="S64" s="41"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="42"/>
+      <c r="S64" s="42"/>
       <c r="T64" s="9"/>
       <c r="U64" s="10"/>
       <c r="V64" s="11"/>
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
-      <c r="Y64" s="32"/>
+      <c r="Y64" s="33"/>
     </row>
     <row r="65" spans="1:25" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
@@ -2684,69 +2686,69 @@
       <c r="V65" s="11"/>
       <c r="W65" s="11"/>
       <c r="X65" s="11"/>
-      <c r="Y65" s="32"/>
+      <c r="Y65" s="33"/>
     </row>
     <row r="66" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="38"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="38"/>
-      <c r="W66" s="38"/>
-      <c r="X66" s="38"/>
-      <c r="Y66" s="38"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
     </row>
     <row r="67" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="44"/>
-      <c r="N67" s="39" t="s">
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O67" s="39"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="39"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="40"/>
+      <c r="U67" s="40"/>
+      <c r="V67" s="40"/>
+      <c r="W67" s="40"/>
+      <c r="X67" s="40"/>
+      <c r="Y67" s="40"/>
     </row>
     <row r="68" spans="1:25" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
@@ -2850,7 +2852,7 @@
       <c r="V69" s="17"/>
       <c r="W69" s="17"/>
       <c r="X69" s="17"/>
-      <c r="Y69" s="32"/>
+      <c r="Y69" s="33"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
@@ -2877,7 +2879,7 @@
       <c r="V70" s="17"/>
       <c r="W70" s="17"/>
       <c r="X70" s="17"/>
-      <c r="Y70" s="32"/>
+      <c r="Y70" s="33"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -2904,7 +2906,7 @@
       <c r="V71" s="17"/>
       <c r="W71" s="17"/>
       <c r="X71" s="17"/>
-      <c r="Y71" s="32"/>
+      <c r="Y71" s="33"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
@@ -2931,7 +2933,7 @@
       <c r="V72" s="17"/>
       <c r="W72" s="17"/>
       <c r="X72" s="17"/>
-      <c r="Y72" s="32"/>
+      <c r="Y72" s="33"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
@@ -2958,7 +2960,7 @@
       <c r="V73" s="17"/>
       <c r="W73" s="17"/>
       <c r="X73" s="17"/>
-      <c r="Y73" s="32"/>
+      <c r="Y73" s="33"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
@@ -2985,7 +2987,7 @@
       <c r="V74" s="17"/>
       <c r="W74" s="17"/>
       <c r="X74" s="17"/>
-      <c r="Y74" s="32"/>
+      <c r="Y74" s="33"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
@@ -3012,7 +3014,7 @@
       <c r="V75" s="17"/>
       <c r="W75" s="17"/>
       <c r="X75" s="17"/>
-      <c r="Y75" s="32"/>
+      <c r="Y75" s="33"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
@@ -3039,7 +3041,7 @@
       <c r="V76" s="17"/>
       <c r="W76" s="17"/>
       <c r="X76" s="17"/>
-      <c r="Y76" s="32"/>
+      <c r="Y76" s="33"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
@@ -3066,7 +3068,7 @@
       <c r="V77" s="17"/>
       <c r="W77" s="17"/>
       <c r="X77" s="17"/>
-      <c r="Y77" s="32"/>
+      <c r="Y77" s="33"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
@@ -3093,7 +3095,7 @@
       <c r="V78" s="17"/>
       <c r="W78" s="17"/>
       <c r="X78" s="17"/>
-      <c r="Y78" s="32"/>
+      <c r="Y78" s="33"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
@@ -3120,7 +3122,7 @@
       <c r="V79" s="17"/>
       <c r="W79" s="17"/>
       <c r="X79" s="17"/>
-      <c r="Y79" s="32"/>
+      <c r="Y79" s="33"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
@@ -3147,7 +3149,7 @@
       <c r="V80" s="17"/>
       <c r="W80" s="17"/>
       <c r="X80" s="17"/>
-      <c r="Y80" s="32"/>
+      <c r="Y80" s="33"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
@@ -3174,7 +3176,7 @@
       <c r="V81" s="17"/>
       <c r="W81" s="17"/>
       <c r="X81" s="17"/>
-      <c r="Y81" s="32"/>
+      <c r="Y81" s="33"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
@@ -3201,7 +3203,7 @@
       <c r="V82" s="17"/>
       <c r="W82" s="17"/>
       <c r="X82" s="17"/>
-      <c r="Y82" s="32"/>
+      <c r="Y82" s="33"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
@@ -3228,7 +3230,7 @@
       <c r="V83" s="17"/>
       <c r="W83" s="17"/>
       <c r="X83" s="17"/>
-      <c r="Y83" s="32"/>
+      <c r="Y83" s="33"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
@@ -3255,7 +3257,7 @@
       <c r="V84" s="17"/>
       <c r="W84" s="17"/>
       <c r="X84" s="17"/>
-      <c r="Y84" s="32"/>
+      <c r="Y84" s="33"/>
     </row>
     <row r="85" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
@@ -3282,7 +3284,7 @@
       <c r="V85" s="17"/>
       <c r="W85" s="17"/>
       <c r="X85" s="17"/>
-      <c r="Y85" s="32"/>
+      <c r="Y85" s="33"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
@@ -3309,7 +3311,7 @@
       <c r="V86" s="17"/>
       <c r="W86" s="17"/>
       <c r="X86" s="17"/>
-      <c r="Y86" s="32"/>
+      <c r="Y86" s="33"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
@@ -3336,7 +3338,7 @@
       <c r="V87" s="17"/>
       <c r="W87" s="17"/>
       <c r="X87" s="17"/>
-      <c r="Y87" s="32"/>
+      <c r="Y87" s="33"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
@@ -3363,7 +3365,7 @@
       <c r="V88" s="17"/>
       <c r="W88" s="17"/>
       <c r="X88" s="17"/>
-      <c r="Y88" s="32"/>
+      <c r="Y88" s="33"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
@@ -3390,7 +3392,7 @@
       <c r="V89" s="17"/>
       <c r="W89" s="17"/>
       <c r="X89" s="17"/>
-      <c r="Y89" s="32"/>
+      <c r="Y89" s="33"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
@@ -3417,7 +3419,7 @@
       <c r="V90" s="17"/>
       <c r="W90" s="17"/>
       <c r="X90" s="17"/>
-      <c r="Y90" s="32"/>
+      <c r="Y90" s="33"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
@@ -3444,7 +3446,7 @@
       <c r="V91" s="17"/>
       <c r="W91" s="17"/>
       <c r="X91" s="17"/>
-      <c r="Y91" s="32"/>
+      <c r="Y91" s="33"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
@@ -3471,7 +3473,7 @@
       <c r="V92" s="17"/>
       <c r="W92" s="17"/>
       <c r="X92" s="17"/>
-      <c r="Y92" s="32"/>
+      <c r="Y92" s="33"/>
     </row>
     <row r="93" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
@@ -3498,7 +3500,7 @@
       <c r="V93" s="17"/>
       <c r="W93" s="17"/>
       <c r="X93" s="17"/>
-      <c r="Y93" s="32"/>
+      <c r="Y93" s="33"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
@@ -3525,7 +3527,7 @@
       <c r="V94" s="17"/>
       <c r="W94" s="17"/>
       <c r="X94" s="17"/>
-      <c r="Y94" s="32"/>
+      <c r="Y94" s="33"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
@@ -3552,7 +3554,7 @@
       <c r="V95" s="17"/>
       <c r="W95" s="17"/>
       <c r="X95" s="17"/>
-      <c r="Y95" s="32"/>
+      <c r="Y95" s="33"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
@@ -3579,7 +3581,7 @@
       <c r="V96" s="17"/>
       <c r="W96" s="17"/>
       <c r="X96" s="17"/>
-      <c r="Y96" s="32"/>
+      <c r="Y96" s="33"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
@@ -3606,7 +3608,7 @@
       <c r="V97" s="17"/>
       <c r="W97" s="17"/>
       <c r="X97" s="17"/>
-      <c r="Y97" s="32"/>
+      <c r="Y97" s="33"/>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
@@ -3633,7 +3635,7 @@
       <c r="V98" s="17"/>
       <c r="W98" s="17"/>
       <c r="X98" s="17"/>
-      <c r="Y98" s="32"/>
+      <c r="Y98" s="33"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
@@ -3660,7 +3662,7 @@
       <c r="V99" s="17"/>
       <c r="W99" s="17"/>
       <c r="X99" s="17"/>
-      <c r="Y99" s="32"/>
+      <c r="Y99" s="33"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
@@ -3687,7 +3689,7 @@
       <c r="V100" s="17"/>
       <c r="W100" s="17"/>
       <c r="X100" s="17"/>
-      <c r="Y100" s="32"/>
+      <c r="Y100" s="33"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
@@ -3714,7 +3716,7 @@
       <c r="V101" s="17"/>
       <c r="W101" s="17"/>
       <c r="X101" s="17"/>
-      <c r="Y101" s="32"/>
+      <c r="Y101" s="33"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
@@ -3741,7 +3743,7 @@
       <c r="V102" s="17"/>
       <c r="W102" s="17"/>
       <c r="X102" s="17"/>
-      <c r="Y102" s="32"/>
+      <c r="Y102" s="33"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
@@ -3768,7 +3770,7 @@
       <c r="V103" s="17"/>
       <c r="W103" s="17"/>
       <c r="X103" s="17"/>
-      <c r="Y103" s="32"/>
+      <c r="Y103" s="33"/>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
@@ -3795,7 +3797,7 @@
       <c r="V104" s="17"/>
       <c r="W104" s="17"/>
       <c r="X104" s="17"/>
-      <c r="Y104" s="32"/>
+      <c r="Y104" s="33"/>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
@@ -3822,7 +3824,7 @@
       <c r="V105" s="17"/>
       <c r="W105" s="17"/>
       <c r="X105" s="17"/>
-      <c r="Y105" s="32"/>
+      <c r="Y105" s="33"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
@@ -3849,7 +3851,7 @@
       <c r="V106" s="17"/>
       <c r="W106" s="17"/>
       <c r="X106" s="17"/>
-      <c r="Y106" s="32"/>
+      <c r="Y106" s="33"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
@@ -3876,7 +3878,7 @@
       <c r="V107" s="17"/>
       <c r="W107" s="17"/>
       <c r="X107" s="17"/>
-      <c r="Y107" s="32"/>
+      <c r="Y107" s="33"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
@@ -3903,7 +3905,7 @@
       <c r="V108" s="17"/>
       <c r="W108" s="17"/>
       <c r="X108" s="17"/>
-      <c r="Y108" s="32"/>
+      <c r="Y108" s="33"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
@@ -3930,7 +3932,7 @@
       <c r="V109" s="17"/>
       <c r="W109" s="17"/>
       <c r="X109" s="17"/>
-      <c r="Y109" s="32"/>
+      <c r="Y109" s="33"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
@@ -3957,7 +3959,7 @@
       <c r="V110" s="17"/>
       <c r="W110" s="17"/>
       <c r="X110" s="17"/>
-      <c r="Y110" s="32"/>
+      <c r="Y110" s="33"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
@@ -3984,7 +3986,7 @@
       <c r="V111" s="17"/>
       <c r="W111" s="17"/>
       <c r="X111" s="17"/>
-      <c r="Y111" s="32"/>
+      <c r="Y111" s="33"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
@@ -4011,7 +4013,7 @@
       <c r="V112" s="17"/>
       <c r="W112" s="17"/>
       <c r="X112" s="17"/>
-      <c r="Y112" s="32"/>
+      <c r="Y112" s="33"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
@@ -4038,7 +4040,7 @@
       <c r="V113" s="17"/>
       <c r="W113" s="17"/>
       <c r="X113" s="17"/>
-      <c r="Y113" s="32"/>
+      <c r="Y113" s="33"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
@@ -4065,7 +4067,7 @@
       <c r="V114" s="17"/>
       <c r="W114" s="17"/>
       <c r="X114" s="17"/>
-      <c r="Y114" s="32"/>
+      <c r="Y114" s="33"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
@@ -4092,7 +4094,7 @@
       <c r="V115" s="17"/>
       <c r="W115" s="17"/>
       <c r="X115" s="17"/>
-      <c r="Y115" s="32"/>
+      <c r="Y115" s="33"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
@@ -4119,7 +4121,7 @@
       <c r="V116" s="17"/>
       <c r="W116" s="17"/>
       <c r="X116" s="17"/>
-      <c r="Y116" s="32"/>
+      <c r="Y116" s="33"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
@@ -4146,7 +4148,7 @@
       <c r="V117" s="17"/>
       <c r="W117" s="17"/>
       <c r="X117" s="17"/>
-      <c r="Y117" s="32"/>
+      <c r="Y117" s="33"/>
     </row>
     <row r="118" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
@@ -4173,7 +4175,7 @@
       <c r="V118" s="17"/>
       <c r="W118" s="17"/>
       <c r="X118" s="17"/>
-      <c r="Y118" s="32"/>
+      <c r="Y118" s="33"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
@@ -4200,7 +4202,7 @@
       <c r="V119" s="17"/>
       <c r="W119" s="17"/>
       <c r="X119" s="17"/>
-      <c r="Y119" s="32"/>
+      <c r="Y119" s="33"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
@@ -4227,7 +4229,7 @@
       <c r="V120" s="17"/>
       <c r="W120" s="17"/>
       <c r="X120" s="17"/>
-      <c r="Y120" s="32"/>
+      <c r="Y120" s="33"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
@@ -4254,7 +4256,7 @@
       <c r="V121" s="17"/>
       <c r="W121" s="17"/>
       <c r="X121" s="17"/>
-      <c r="Y121" s="32"/>
+      <c r="Y121" s="33"/>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
@@ -4281,7 +4283,7 @@
       <c r="V122" s="17"/>
       <c r="W122" s="17"/>
       <c r="X122" s="17"/>
-      <c r="Y122" s="32"/>
+      <c r="Y122" s="33"/>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
@@ -4308,7 +4310,7 @@
       <c r="V123" s="17"/>
       <c r="W123" s="17"/>
       <c r="X123" s="17"/>
-      <c r="Y123" s="32"/>
+      <c r="Y123" s="33"/>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
@@ -4335,7 +4337,7 @@
       <c r="V124" s="17"/>
       <c r="W124" s="17"/>
       <c r="X124" s="17"/>
-      <c r="Y124" s="32"/>
+      <c r="Y124" s="33"/>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
@@ -4362,7 +4364,7 @@
       <c r="V125" s="17"/>
       <c r="W125" s="17"/>
       <c r="X125" s="17"/>
-      <c r="Y125" s="32"/>
+      <c r="Y125" s="33"/>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
@@ -4389,7 +4391,7 @@
       <c r="V126" s="17"/>
       <c r="W126" s="17"/>
       <c r="X126" s="17"/>
-      <c r="Y126" s="32"/>
+      <c r="Y126" s="33"/>
     </row>
     <row r="127" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
@@ -4416,7 +4418,7 @@
       <c r="V127" s="17"/>
       <c r="W127" s="17"/>
       <c r="X127" s="17"/>
-      <c r="Y127" s="32"/>
+      <c r="Y127" s="33"/>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
@@ -4443,49 +4445,49 @@
       <c r="V128" s="17"/>
       <c r="W128" s="17"/>
       <c r="X128" s="17"/>
-      <c r="Y128" s="32"/>
+      <c r="Y128" s="33"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A129" s="40" t="s">
+      <c r="A129" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B129" s="40"/>
-      <c r="C129" s="40"/>
-      <c r="D129" s="40"/>
-      <c r="E129" s="40"/>
-      <c r="F129" s="40"/>
-      <c r="G129" s="40"/>
-      <c r="H129" s="40"/>
-      <c r="I129" s="40"/>
-      <c r="J129" s="40"/>
-      <c r="K129" s="40"/>
-      <c r="L129" s="40"/>
-      <c r="M129" s="40"/>
-      <c r="N129" s="40"/>
-      <c r="O129" s="40"/>
-      <c r="P129" s="40"/>
-      <c r="Q129" s="40"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="41"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="41"/>
+      <c r="K129" s="41"/>
+      <c r="L129" s="41"/>
+      <c r="M129" s="41"/>
+      <c r="N129" s="41"/>
+      <c r="O129" s="41"/>
+      <c r="P129" s="41"/>
+      <c r="Q129" s="41"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A130" s="40" t="s">
+      <c r="A130" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B130" s="40"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="40"/>
-      <c r="E130" s="40"/>
-      <c r="F130" s="40"/>
-      <c r="G130" s="40"/>
-      <c r="H130" s="40"/>
-      <c r="I130" s="40"/>
-      <c r="J130" s="40"/>
-      <c r="K130" s="40"/>
-      <c r="L130" s="40"/>
-      <c r="M130" s="40"/>
-      <c r="N130" s="40"/>
-      <c r="O130" s="40"/>
-      <c r="P130" s="40"/>
-      <c r="Q130" s="40"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="41"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="41"/>
+      <c r="K130" s="41"/>
+      <c r="L130" s="41"/>
+      <c r="M130" s="41"/>
+      <c r="N130" s="41"/>
+      <c r="O130" s="41"/>
+      <c r="P130" s="41"/>
+      <c r="Q130" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/PhoenixCI/Excel_Template/30620.xlsx
+++ b/PhoenixCI/Excel_Template/30620.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DDDE0D6-D5A0-4170-8748-48994661E1D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3A0EB9C-1586-4FBA-BE31-79830C267565}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12510"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="震幅vs 波動度" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -366,7 +367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,16 +383,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -400,13 +401,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -415,10 +416,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -430,7 +431,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -442,29 +443,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -869,71 +867,71 @@
     <col min="19" max="20" width="8.875" style="1" customWidth="1"/>
     <col min="21" max="21" width="8.875" style="19" hidden="1" customWidth="1"/>
     <col min="22" max="24" width="8.875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="10.75" style="34" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="10.75" style="33" hidden="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="36"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="35" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="37"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="36"/>
     </row>
     <row r="3" spans="1:25" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1037,7 +1035,7 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
-      <c r="Y4" s="32"/>
+      <c r="Y4" s="27"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -1064,7 +1062,7 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
-      <c r="Y5" s="32"/>
+      <c r="Y5" s="27"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -1091,7 +1089,7 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
-      <c r="Y6" s="32"/>
+      <c r="Y6" s="27"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -1118,7 +1116,7 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="32"/>
+      <c r="Y7" s="27"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -1145,7 +1143,7 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
-      <c r="Y8" s="32"/>
+      <c r="Y8" s="27"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -1172,7 +1170,7 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
-      <c r="Y9" s="32"/>
+      <c r="Y9" s="27"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -1199,7 +1197,7 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="32"/>
+      <c r="Y10" s="27"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -1226,7 +1224,7 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="32"/>
+      <c r="Y11" s="27"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1253,7 +1251,7 @@
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
-      <c r="Y12" s="32"/>
+      <c r="Y12" s="27"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -1280,7 +1278,7 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="32"/>
+      <c r="Y13" s="27"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -1307,7 +1305,7 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="32"/>
+      <c r="Y14" s="27"/>
     </row>
     <row r="15" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
@@ -1685,7 +1683,7 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="32"/>
+      <c r="Y28" s="27"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -1712,7 +1710,7 @@
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
-      <c r="Y29" s="32"/>
+      <c r="Y29" s="27"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
@@ -1739,7 +1737,7 @@
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
-      <c r="Y30" s="32"/>
+      <c r="Y30" s="27"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -1766,7 +1764,7 @@
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
-      <c r="Y31" s="32"/>
+      <c r="Y31" s="27"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
@@ -1793,7 +1791,7 @@
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
-      <c r="Y32" s="32"/>
+      <c r="Y32" s="27"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
@@ -1820,7 +1818,7 @@
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
-      <c r="Y33" s="32"/>
+      <c r="Y33" s="27"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
@@ -1847,7 +1845,7 @@
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
-      <c r="Y34" s="32"/>
+      <c r="Y34" s="27"/>
     </row>
     <row r="35" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -2633,33 +2631,33 @@
       <c r="Y63" s="27"/>
     </row>
     <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="42"/>
-      <c r="N64" s="42"/>
-      <c r="O64" s="42"/>
-      <c r="P64" s="42"/>
-      <c r="Q64" s="42"/>
-      <c r="R64" s="42"/>
-      <c r="S64" s="42"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="41"/>
+      <c r="S64" s="41"/>
       <c r="T64" s="9"/>
       <c r="U64" s="10"/>
       <c r="V64" s="11"/>
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
-      <c r="Y64" s="33"/>
+      <c r="Y64" s="32"/>
     </row>
     <row r="65" spans="1:25" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
@@ -2686,69 +2684,69 @@
       <c r="V65" s="11"/>
       <c r="W65" s="11"/>
       <c r="X65" s="11"/>
-      <c r="Y65" s="33"/>
+      <c r="Y65" s="32"/>
     </row>
     <row r="66" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="38" t="s">
+      <c r="A66" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="39"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="39"/>
-      <c r="T66" s="39"/>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
-      <c r="W66" s="39"/>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="38"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="38"/>
+      <c r="Y66" s="38"/>
     </row>
     <row r="67" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="45"/>
-      <c r="N67" s="40" t="s">
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
-      <c r="T67" s="40"/>
-      <c r="U67" s="40"/>
-      <c r="V67" s="40"/>
-      <c r="W67" s="40"/>
-      <c r="X67" s="40"/>
-      <c r="Y67" s="40"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="39"/>
+      <c r="Y67" s="39"/>
     </row>
     <row r="68" spans="1:25" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
@@ -2852,7 +2850,7 @@
       <c r="V69" s="17"/>
       <c r="W69" s="17"/>
       <c r="X69" s="17"/>
-      <c r="Y69" s="33"/>
+      <c r="Y69" s="32"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
@@ -2879,7 +2877,7 @@
       <c r="V70" s="17"/>
       <c r="W70" s="17"/>
       <c r="X70" s="17"/>
-      <c r="Y70" s="33"/>
+      <c r="Y70" s="32"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -2906,7 +2904,7 @@
       <c r="V71" s="17"/>
       <c r="W71" s="17"/>
       <c r="X71" s="17"/>
-      <c r="Y71" s="33"/>
+      <c r="Y71" s="32"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
@@ -2933,7 +2931,7 @@
       <c r="V72" s="17"/>
       <c r="W72" s="17"/>
       <c r="X72" s="17"/>
-      <c r="Y72" s="33"/>
+      <c r="Y72" s="32"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
@@ -2960,7 +2958,7 @@
       <c r="V73" s="17"/>
       <c r="W73" s="17"/>
       <c r="X73" s="17"/>
-      <c r="Y73" s="33"/>
+      <c r="Y73" s="32"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
@@ -2987,7 +2985,7 @@
       <c r="V74" s="17"/>
       <c r="W74" s="17"/>
       <c r="X74" s="17"/>
-      <c r="Y74" s="33"/>
+      <c r="Y74" s="32"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
@@ -3014,7 +3012,7 @@
       <c r="V75" s="17"/>
       <c r="W75" s="17"/>
       <c r="X75" s="17"/>
-      <c r="Y75" s="33"/>
+      <c r="Y75" s="32"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
@@ -3041,7 +3039,7 @@
       <c r="V76" s="17"/>
       <c r="W76" s="17"/>
       <c r="X76" s="17"/>
-      <c r="Y76" s="33"/>
+      <c r="Y76" s="32"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
@@ -3068,7 +3066,7 @@
       <c r="V77" s="17"/>
       <c r="W77" s="17"/>
       <c r="X77" s="17"/>
-      <c r="Y77" s="33"/>
+      <c r="Y77" s="32"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
@@ -3095,7 +3093,7 @@
       <c r="V78" s="17"/>
       <c r="W78" s="17"/>
       <c r="X78" s="17"/>
-      <c r="Y78" s="33"/>
+      <c r="Y78" s="32"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
@@ -3122,7 +3120,7 @@
       <c r="V79" s="17"/>
       <c r="W79" s="17"/>
       <c r="X79" s="17"/>
-      <c r="Y79" s="33"/>
+      <c r="Y79" s="32"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
@@ -3149,7 +3147,7 @@
       <c r="V80" s="17"/>
       <c r="W80" s="17"/>
       <c r="X80" s="17"/>
-      <c r="Y80" s="33"/>
+      <c r="Y80" s="32"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
@@ -3176,7 +3174,7 @@
       <c r="V81" s="17"/>
       <c r="W81" s="17"/>
       <c r="X81" s="17"/>
-      <c r="Y81" s="33"/>
+      <c r="Y81" s="32"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
@@ -3203,7 +3201,7 @@
       <c r="V82" s="17"/>
       <c r="W82" s="17"/>
       <c r="X82" s="17"/>
-      <c r="Y82" s="33"/>
+      <c r="Y82" s="32"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
@@ -3230,7 +3228,7 @@
       <c r="V83" s="17"/>
       <c r="W83" s="17"/>
       <c r="X83" s="17"/>
-      <c r="Y83" s="33"/>
+      <c r="Y83" s="32"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
@@ -3257,7 +3255,7 @@
       <c r="V84" s="17"/>
       <c r="W84" s="17"/>
       <c r="X84" s="17"/>
-      <c r="Y84" s="33"/>
+      <c r="Y84" s="32"/>
     </row>
     <row r="85" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
@@ -3284,7 +3282,7 @@
       <c r="V85" s="17"/>
       <c r="W85" s="17"/>
       <c r="X85" s="17"/>
-      <c r="Y85" s="33"/>
+      <c r="Y85" s="32"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
@@ -3311,7 +3309,7 @@
       <c r="V86" s="17"/>
       <c r="W86" s="17"/>
       <c r="X86" s="17"/>
-      <c r="Y86" s="33"/>
+      <c r="Y86" s="32"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
@@ -3338,7 +3336,7 @@
       <c r="V87" s="17"/>
       <c r="W87" s="17"/>
       <c r="X87" s="17"/>
-      <c r="Y87" s="33"/>
+      <c r="Y87" s="32"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
@@ -3365,7 +3363,7 @@
       <c r="V88" s="17"/>
       <c r="W88" s="17"/>
       <c r="X88" s="17"/>
-      <c r="Y88" s="33"/>
+      <c r="Y88" s="32"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
@@ -3392,7 +3390,7 @@
       <c r="V89" s="17"/>
       <c r="W89" s="17"/>
       <c r="X89" s="17"/>
-      <c r="Y89" s="33"/>
+      <c r="Y89" s="32"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
@@ -3419,7 +3417,7 @@
       <c r="V90" s="17"/>
       <c r="W90" s="17"/>
       <c r="X90" s="17"/>
-      <c r="Y90" s="33"/>
+      <c r="Y90" s="32"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
@@ -3446,7 +3444,7 @@
       <c r="V91" s="17"/>
       <c r="W91" s="17"/>
       <c r="X91" s="17"/>
-      <c r="Y91" s="33"/>
+      <c r="Y91" s="32"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
@@ -3473,7 +3471,7 @@
       <c r="V92" s="17"/>
       <c r="W92" s="17"/>
       <c r="X92" s="17"/>
-      <c r="Y92" s="33"/>
+      <c r="Y92" s="32"/>
     </row>
     <row r="93" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
@@ -3500,7 +3498,7 @@
       <c r="V93" s="17"/>
       <c r="W93" s="17"/>
       <c r="X93" s="17"/>
-      <c r="Y93" s="33"/>
+      <c r="Y93" s="32"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
@@ -3527,7 +3525,7 @@
       <c r="V94" s="17"/>
       <c r="W94" s="17"/>
       <c r="X94" s="17"/>
-      <c r="Y94" s="33"/>
+      <c r="Y94" s="32"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
@@ -3554,7 +3552,7 @@
       <c r="V95" s="17"/>
       <c r="W95" s="17"/>
       <c r="X95" s="17"/>
-      <c r="Y95" s="33"/>
+      <c r="Y95" s="32"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
@@ -3581,7 +3579,7 @@
       <c r="V96" s="17"/>
       <c r="W96" s="17"/>
       <c r="X96" s="17"/>
-      <c r="Y96" s="33"/>
+      <c r="Y96" s="32"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
@@ -3608,7 +3606,7 @@
       <c r="V97" s="17"/>
       <c r="W97" s="17"/>
       <c r="X97" s="17"/>
-      <c r="Y97" s="33"/>
+      <c r="Y97" s="32"/>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
@@ -3635,7 +3633,7 @@
       <c r="V98" s="17"/>
       <c r="W98" s="17"/>
       <c r="X98" s="17"/>
-      <c r="Y98" s="33"/>
+      <c r="Y98" s="32"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
@@ -3662,7 +3660,7 @@
       <c r="V99" s="17"/>
       <c r="W99" s="17"/>
       <c r="X99" s="17"/>
-      <c r="Y99" s="33"/>
+      <c r="Y99" s="32"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
@@ -3689,7 +3687,7 @@
       <c r="V100" s="17"/>
       <c r="W100" s="17"/>
       <c r="X100" s="17"/>
-      <c r="Y100" s="33"/>
+      <c r="Y100" s="32"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
@@ -3716,7 +3714,7 @@
       <c r="V101" s="17"/>
       <c r="W101" s="17"/>
       <c r="X101" s="17"/>
-      <c r="Y101" s="33"/>
+      <c r="Y101" s="32"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
@@ -3743,7 +3741,7 @@
       <c r="V102" s="17"/>
       <c r="W102" s="17"/>
       <c r="X102" s="17"/>
-      <c r="Y102" s="33"/>
+      <c r="Y102" s="32"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
@@ -3770,7 +3768,7 @@
       <c r="V103" s="17"/>
       <c r="W103" s="17"/>
       <c r="X103" s="17"/>
-      <c r="Y103" s="33"/>
+      <c r="Y103" s="32"/>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
@@ -3797,7 +3795,7 @@
       <c r="V104" s="17"/>
       <c r="W104" s="17"/>
       <c r="X104" s="17"/>
-      <c r="Y104" s="33"/>
+      <c r="Y104" s="32"/>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
@@ -3824,7 +3822,7 @@
       <c r="V105" s="17"/>
       <c r="W105" s="17"/>
       <c r="X105" s="17"/>
-      <c r="Y105" s="33"/>
+      <c r="Y105" s="32"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
@@ -3851,7 +3849,7 @@
       <c r="V106" s="17"/>
       <c r="W106" s="17"/>
       <c r="X106" s="17"/>
-      <c r="Y106" s="33"/>
+      <c r="Y106" s="32"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
@@ -3878,7 +3876,7 @@
       <c r="V107" s="17"/>
       <c r="W107" s="17"/>
       <c r="X107" s="17"/>
-      <c r="Y107" s="33"/>
+      <c r="Y107" s="32"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
@@ -3905,7 +3903,7 @@
       <c r="V108" s="17"/>
       <c r="W108" s="17"/>
       <c r="X108" s="17"/>
-      <c r="Y108" s="33"/>
+      <c r="Y108" s="32"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
@@ -3932,7 +3930,7 @@
       <c r="V109" s="17"/>
       <c r="W109" s="17"/>
       <c r="X109" s="17"/>
-      <c r="Y109" s="33"/>
+      <c r="Y109" s="32"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
@@ -3959,7 +3957,7 @@
       <c r="V110" s="17"/>
       <c r="W110" s="17"/>
       <c r="X110" s="17"/>
-      <c r="Y110" s="33"/>
+      <c r="Y110" s="32"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
@@ -3986,7 +3984,7 @@
       <c r="V111" s="17"/>
       <c r="W111" s="17"/>
       <c r="X111" s="17"/>
-      <c r="Y111" s="33"/>
+      <c r="Y111" s="32"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
@@ -4013,7 +4011,7 @@
       <c r="V112" s="17"/>
       <c r="W112" s="17"/>
       <c r="X112" s="17"/>
-      <c r="Y112" s="33"/>
+      <c r="Y112" s="32"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
@@ -4040,7 +4038,7 @@
       <c r="V113" s="17"/>
       <c r="W113" s="17"/>
       <c r="X113" s="17"/>
-      <c r="Y113" s="33"/>
+      <c r="Y113" s="32"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
@@ -4067,7 +4065,7 @@
       <c r="V114" s="17"/>
       <c r="W114" s="17"/>
       <c r="X114" s="17"/>
-      <c r="Y114" s="33"/>
+      <c r="Y114" s="32"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
@@ -4094,7 +4092,7 @@
       <c r="V115" s="17"/>
       <c r="W115" s="17"/>
       <c r="X115" s="17"/>
-      <c r="Y115" s="33"/>
+      <c r="Y115" s="32"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
@@ -4121,7 +4119,7 @@
       <c r="V116" s="17"/>
       <c r="W116" s="17"/>
       <c r="X116" s="17"/>
-      <c r="Y116" s="33"/>
+      <c r="Y116" s="32"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
@@ -4148,7 +4146,7 @@
       <c r="V117" s="17"/>
       <c r="W117" s="17"/>
       <c r="X117" s="17"/>
-      <c r="Y117" s="33"/>
+      <c r="Y117" s="32"/>
     </row>
     <row r="118" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
@@ -4175,7 +4173,7 @@
       <c r="V118" s="17"/>
       <c r="W118" s="17"/>
       <c r="X118" s="17"/>
-      <c r="Y118" s="33"/>
+      <c r="Y118" s="32"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
@@ -4202,7 +4200,7 @@
       <c r="V119" s="17"/>
       <c r="W119" s="17"/>
       <c r="X119" s="17"/>
-      <c r="Y119" s="33"/>
+      <c r="Y119" s="32"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
@@ -4229,7 +4227,7 @@
       <c r="V120" s="17"/>
       <c r="W120" s="17"/>
       <c r="X120" s="17"/>
-      <c r="Y120" s="33"/>
+      <c r="Y120" s="32"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
@@ -4256,7 +4254,7 @@
       <c r="V121" s="17"/>
       <c r="W121" s="17"/>
       <c r="X121" s="17"/>
-      <c r="Y121" s="33"/>
+      <c r="Y121" s="32"/>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
@@ -4283,7 +4281,7 @@
       <c r="V122" s="17"/>
       <c r="W122" s="17"/>
       <c r="X122" s="17"/>
-      <c r="Y122" s="33"/>
+      <c r="Y122" s="32"/>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
@@ -4310,7 +4308,7 @@
       <c r="V123" s="17"/>
       <c r="W123" s="17"/>
       <c r="X123" s="17"/>
-      <c r="Y123" s="33"/>
+      <c r="Y123" s="32"/>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
@@ -4337,7 +4335,7 @@
       <c r="V124" s="17"/>
       <c r="W124" s="17"/>
       <c r="X124" s="17"/>
-      <c r="Y124" s="33"/>
+      <c r="Y124" s="32"/>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
@@ -4364,7 +4362,7 @@
       <c r="V125" s="17"/>
       <c r="W125" s="17"/>
       <c r="X125" s="17"/>
-      <c r="Y125" s="33"/>
+      <c r="Y125" s="32"/>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
@@ -4391,7 +4389,7 @@
       <c r="V126" s="17"/>
       <c r="W126" s="17"/>
       <c r="X126" s="17"/>
-      <c r="Y126" s="33"/>
+      <c r="Y126" s="32"/>
     </row>
     <row r="127" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
@@ -4418,7 +4416,7 @@
       <c r="V127" s="17"/>
       <c r="W127" s="17"/>
       <c r="X127" s="17"/>
-      <c r="Y127" s="33"/>
+      <c r="Y127" s="32"/>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
@@ -4445,49 +4443,49 @@
       <c r="V128" s="17"/>
       <c r="W128" s="17"/>
       <c r="X128" s="17"/>
-      <c r="Y128" s="33"/>
+      <c r="Y128" s="32"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A129" s="41" t="s">
+      <c r="A129" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B129" s="41"/>
-      <c r="C129" s="41"/>
-      <c r="D129" s="41"/>
-      <c r="E129" s="41"/>
-      <c r="F129" s="41"/>
-      <c r="G129" s="41"/>
-      <c r="H129" s="41"/>
-      <c r="I129" s="41"/>
-      <c r="J129" s="41"/>
-      <c r="K129" s="41"/>
-      <c r="L129" s="41"/>
-      <c r="M129" s="41"/>
-      <c r="N129" s="41"/>
-      <c r="O129" s="41"/>
-      <c r="P129" s="41"/>
-      <c r="Q129" s="41"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="40"/>
+      <c r="F129" s="40"/>
+      <c r="G129" s="40"/>
+      <c r="H129" s="40"/>
+      <c r="I129" s="40"/>
+      <c r="J129" s="40"/>
+      <c r="K129" s="40"/>
+      <c r="L129" s="40"/>
+      <c r="M129" s="40"/>
+      <c r="N129" s="40"/>
+      <c r="O129" s="40"/>
+      <c r="P129" s="40"/>
+      <c r="Q129" s="40"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A130" s="41" t="s">
+      <c r="A130" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B130" s="41"/>
-      <c r="C130" s="41"/>
-      <c r="D130" s="41"/>
-      <c r="E130" s="41"/>
-      <c r="F130" s="41"/>
-      <c r="G130" s="41"/>
-      <c r="H130" s="41"/>
-      <c r="I130" s="41"/>
-      <c r="J130" s="41"/>
-      <c r="K130" s="41"/>
-      <c r="L130" s="41"/>
-      <c r="M130" s="41"/>
-      <c r="N130" s="41"/>
-      <c r="O130" s="41"/>
-      <c r="P130" s="41"/>
-      <c r="Q130" s="41"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="40"/>
+      <c r="F130" s="40"/>
+      <c r="G130" s="40"/>
+      <c r="H130" s="40"/>
+      <c r="I130" s="40"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="40"/>
+      <c r="L130" s="40"/>
+      <c r="M130" s="40"/>
+      <c r="N130" s="40"/>
+      <c r="O130" s="40"/>
+      <c r="P130" s="40"/>
+      <c r="Q130" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/PhoenixCI/Excel_Template/30620.xlsx
+++ b/PhoenixCI/Excel_Template/30620.xlsx
@@ -1,37 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\開發\PhoenixCI\20190802\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3A0EB9C-1586-4FBA-BE31-79830C267565}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="震幅vs 波動度" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'震幅vs 波動度'!$A$1:$X$130</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'震幅vs 波動度'!$A$1:$Z$130</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>市場</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -178,6 +169,16 @@
 指數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>富櫃200
+指數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富櫃200
+期貨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -187,7 +188,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -229,6 +230,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -367,7 +375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,92 +391,107 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -597,23 +620,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -649,23 +655,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -846,94 +835,98 @@
     <tabColor indexed="14"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y130"/>
+  <dimension ref="A1:AA130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y3" sqref="Y1:Y65536"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.625" style="20" customWidth="1"/>
-    <col min="2" max="8" width="8.375" style="20" customWidth="1"/>
-    <col min="9" max="11" width="8.625" style="21" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="30" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.25" style="20" hidden="1" customWidth="1"/>
-    <col min="14" max="17" width="8.375" style="20" customWidth="1"/>
-    <col min="18" max="18" width="8.375" style="1" customWidth="1"/>
-    <col min="19" max="20" width="8.875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.875" style="19" hidden="1" customWidth="1"/>
-    <col min="22" max="24" width="8.875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="10.75" style="33" hidden="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="2" max="9" width="8.375" style="20" customWidth="1"/>
+    <col min="10" max="12" width="8.625" style="21" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="32" customWidth="1"/>
+    <col min="14" max="14" width="6.25" style="20" hidden="1" customWidth="1"/>
+    <col min="15" max="18" width="8.375" style="20" customWidth="1"/>
+    <col min="19" max="20" width="8.375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="8.875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.875" style="19" hidden="1" customWidth="1"/>
+    <col min="24" max="26" width="8.875" style="8" customWidth="1"/>
+    <col min="27" max="27" width="10.75" style="36" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="36"/>
-    </row>
-    <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="41"/>
+    </row>
+    <row r="2" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="34" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="36"/>
-    </row>
-    <row r="3" spans="1:25" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="41"/>
+    </row>
+    <row r="3" spans="1:27" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -952,65 +945,71 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="M3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="O3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="P3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="Q3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="R3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="S3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="T3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="V3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="W3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="X3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="Y3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="Z3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="31" t="s">
+      <c r="AA3" s="37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1022,8 +1021,8 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -1031,13 +1030,15 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
-      <c r="U4" s="7"/>
+      <c r="U4" s="6"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
+      <c r="W4" s="7"/>
       <c r="X4" s="6"/>
-      <c r="Y4" s="27"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="34"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1049,8 +1050,8 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -1058,13 +1059,15 @@
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
-      <c r="U5" s="7"/>
+      <c r="U5" s="6"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
+      <c r="W5" s="7"/>
       <c r="X5" s="6"/>
-      <c r="Y5" s="27"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="34"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1076,8 +1079,8 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -1085,13 +1088,15 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="7"/>
+      <c r="U6" s="6"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
+      <c r="W6" s="7"/>
       <c r="X6" s="6"/>
-      <c r="Y6" s="27"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="34"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1103,8 +1108,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -1112,13 +1117,15 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="7"/>
+      <c r="U7" s="6"/>
       <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
+      <c r="W7" s="7"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="27"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="34"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1130,8 +1137,8 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="29"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -1139,13 +1146,15 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
-      <c r="U8" s="7"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
+      <c r="W8" s="7"/>
       <c r="X8" s="6"/>
-      <c r="Y8" s="27"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="34"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1157,8 +1166,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="29"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -1166,13 +1175,15 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="7"/>
+      <c r="U9" s="6"/>
       <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
+      <c r="W9" s="7"/>
       <c r="X9" s="6"/>
-      <c r="Y9" s="27"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="34"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1184,8 +1195,8 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="29"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1193,13 +1204,15 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="7"/>
+      <c r="U10" s="6"/>
       <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
+      <c r="W10" s="7"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="27"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="34"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1211,8 +1224,8 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="29"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1220,13 +1233,15 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="7"/>
+      <c r="U11" s="6"/>
       <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
+      <c r="W11" s="7"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="27"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="34"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1238,8 +1253,8 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="29"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -1247,13 +1262,15 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
-      <c r="U12" s="7"/>
+      <c r="U12" s="6"/>
       <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
+      <c r="W12" s="7"/>
       <c r="X12" s="6"/>
-      <c r="Y12" s="27"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="34"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1265,8 +1282,8 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="29"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -1274,13 +1291,15 @@
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="7"/>
+      <c r="U13" s="6"/>
       <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
+      <c r="W13" s="7"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="27"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="34"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1292,8 +1311,8 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="29"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -1301,13 +1320,15 @@
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="7"/>
+      <c r="U14" s="6"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
+      <c r="W14" s="7"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="27"/>
-    </row>
-    <row r="15" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="34"/>
+    </row>
+    <row r="15" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1319,8 +1340,8 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="29"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -1328,13 +1349,15 @@
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
-      <c r="U15" s="7"/>
+      <c r="U15" s="6"/>
       <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
+      <c r="W15" s="7"/>
       <c r="X15" s="6"/>
-      <c r="Y15" s="27"/>
-    </row>
-    <row r="16" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="29"/>
+    </row>
+    <row r="16" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1346,8 +1369,8 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -1355,13 +1378,15 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
-      <c r="U16" s="7"/>
+      <c r="U16" s="6"/>
       <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
+      <c r="W16" s="7"/>
       <c r="X16" s="6"/>
-      <c r="Y16" s="27"/>
-    </row>
-    <row r="17" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="29"/>
+    </row>
+    <row r="17" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1373,8 +1398,8 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="29"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -1382,13 +1407,15 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="7"/>
+      <c r="U17" s="6"/>
       <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
+      <c r="W17" s="7"/>
       <c r="X17" s="6"/>
-      <c r="Y17" s="27"/>
-    </row>
-    <row r="18" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="29"/>
+    </row>
+    <row r="18" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1400,8 +1427,8 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -1409,13 +1436,15 @@
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
-      <c r="U18" s="7"/>
+      <c r="U18" s="6"/>
       <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
+      <c r="W18" s="7"/>
       <c r="X18" s="6"/>
-      <c r="Y18" s="27"/>
-    </row>
-    <row r="19" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="29"/>
+    </row>
+    <row r="19" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1427,8 +1456,8 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="29"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -1436,13 +1465,15 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-      <c r="U19" s="7"/>
+      <c r="U19" s="6"/>
       <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
+      <c r="W19" s="7"/>
       <c r="X19" s="6"/>
-      <c r="Y19" s="27"/>
-    </row>
-    <row r="20" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="29"/>
+    </row>
+    <row r="20" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1454,8 +1485,8 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="29"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -1463,13 +1494,15 @@
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
-      <c r="U20" s="7"/>
+      <c r="U20" s="6"/>
       <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
+      <c r="W20" s="7"/>
       <c r="X20" s="6"/>
-      <c r="Y20" s="27"/>
-    </row>
-    <row r="21" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="29"/>
+    </row>
+    <row r="21" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1481,8 +1514,8 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -1490,13 +1523,15 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
-      <c r="U21" s="7"/>
+      <c r="U21" s="6"/>
       <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
+      <c r="W21" s="7"/>
       <c r="X21" s="6"/>
-      <c r="Y21" s="27"/>
-    </row>
-    <row r="22" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="29"/>
+    </row>
+    <row r="22" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1508,8 +1543,8 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="29"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -1517,13 +1552,15 @@
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="7"/>
+      <c r="U22" s="6"/>
       <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
+      <c r="W22" s="7"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="27"/>
-    </row>
-    <row r="23" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="29"/>
+    </row>
+    <row r="23" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1535,8 +1572,8 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -1544,13 +1581,15 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="7"/>
+      <c r="U23" s="6"/>
       <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
+      <c r="W23" s="7"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="27"/>
-    </row>
-    <row r="24" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="29"/>
+    </row>
+    <row r="24" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1562,8 +1601,8 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="29"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -1571,13 +1610,15 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="7"/>
+      <c r="U24" s="6"/>
       <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
+      <c r="W24" s="7"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="27"/>
-    </row>
-    <row r="25" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="29"/>
+    </row>
+    <row r="25" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1589,8 +1630,8 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="29"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -1598,13 +1639,15 @@
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="7"/>
+      <c r="U25" s="6"/>
       <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
+      <c r="W25" s="7"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="27"/>
-    </row>
-    <row r="26" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="29"/>
+    </row>
+    <row r="26" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1616,8 +1659,8 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="29"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -1625,13 +1668,15 @@
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="7"/>
+      <c r="U26" s="6"/>
       <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
+      <c r="W26" s="7"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="27"/>
-    </row>
-    <row r="27" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="29"/>
+    </row>
+    <row r="27" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1643,8 +1688,8 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="29"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -1652,13 +1697,15 @@
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
-      <c r="U27" s="7"/>
+      <c r="U27" s="6"/>
       <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
+      <c r="W27" s="7"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="27"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="29"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1670,8 +1717,8 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="29"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -1679,13 +1726,15 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="7"/>
+      <c r="U28" s="6"/>
       <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
+      <c r="W28" s="7"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="27"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="34"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1697,8 +1746,8 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="29"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -1706,13 +1755,15 @@
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="7"/>
+      <c r="U29" s="6"/>
       <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
+      <c r="W29" s="7"/>
       <c r="X29" s="6"/>
-      <c r="Y29" s="27"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="34"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1724,8 +1775,8 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="29"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -1733,13 +1784,15 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
-      <c r="U30" s="7"/>
+      <c r="U30" s="6"/>
       <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
+      <c r="W30" s="7"/>
       <c r="X30" s="6"/>
-      <c r="Y30" s="27"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="34"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1751,8 +1804,8 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="29"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -1760,13 +1813,15 @@
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
-      <c r="U31" s="7"/>
+      <c r="U31" s="6"/>
       <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
+      <c r="W31" s="7"/>
       <c r="X31" s="6"/>
-      <c r="Y31" s="27"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="34"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1778,8 +1833,8 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="29"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -1787,13 +1842,15 @@
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
-      <c r="U32" s="7"/>
+      <c r="U32" s="6"/>
       <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
+      <c r="W32" s="7"/>
       <c r="X32" s="6"/>
-      <c r="Y32" s="27"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="34"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1805,8 +1862,8 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="29"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
@@ -1814,13 +1871,15 @@
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
-      <c r="U33" s="7"/>
+      <c r="U33" s="6"/>
       <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
+      <c r="W33" s="7"/>
       <c r="X33" s="6"/>
-      <c r="Y33" s="27"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="34"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1832,8 +1891,8 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="29"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -1841,13 +1900,15 @@
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
-      <c r="U34" s="7"/>
+      <c r="U34" s="6"/>
       <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
+      <c r="W34" s="7"/>
       <c r="X34" s="6"/>
-      <c r="Y34" s="27"/>
-    </row>
-    <row r="35" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="34"/>
+    </row>
+    <row r="35" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1859,8 +1920,8 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="29"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
@@ -1868,13 +1929,15 @@
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
-      <c r="U35" s="7"/>
+      <c r="U35" s="6"/>
       <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
+      <c r="W35" s="7"/>
       <c r="X35" s="6"/>
-      <c r="Y35" s="27"/>
-    </row>
-    <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="29"/>
+    </row>
+    <row r="36" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1886,8 +1949,8 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="29"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
@@ -1895,13 +1958,15 @@
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
-      <c r="U36" s="7"/>
+      <c r="U36" s="6"/>
       <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
+      <c r="W36" s="7"/>
       <c r="X36" s="6"/>
-      <c r="Y36" s="27"/>
-    </row>
-    <row r="37" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="29"/>
+    </row>
+    <row r="37" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1913,8 +1978,8 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="29"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -1922,13 +1987,15 @@
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
-      <c r="U37" s="7"/>
+      <c r="U37" s="6"/>
       <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
+      <c r="W37" s="7"/>
       <c r="X37" s="6"/>
-      <c r="Y37" s="27"/>
-    </row>
-    <row r="38" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="29"/>
+    </row>
+    <row r="38" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1940,8 +2007,8 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="29"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -1949,13 +2016,15 @@
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
-      <c r="U38" s="7"/>
+      <c r="U38" s="6"/>
       <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
+      <c r="W38" s="7"/>
       <c r="X38" s="6"/>
-      <c r="Y38" s="27"/>
-    </row>
-    <row r="39" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="29"/>
+    </row>
+    <row r="39" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1967,8 +2036,8 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="29"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -1976,13 +2045,15 @@
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
-      <c r="U39" s="7"/>
+      <c r="U39" s="6"/>
       <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
+      <c r="W39" s="7"/>
       <c r="X39" s="6"/>
-      <c r="Y39" s="27"/>
-    </row>
-    <row r="40" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="29"/>
+    </row>
+    <row r="40" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1994,8 +2065,8 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="29"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -2003,13 +2074,15 @@
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
-      <c r="U40" s="7"/>
+      <c r="U40" s="6"/>
       <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
+      <c r="W40" s="7"/>
       <c r="X40" s="6"/>
-      <c r="Y40" s="27"/>
-    </row>
-    <row r="41" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="29"/>
+    </row>
+    <row r="41" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2021,8 +2094,8 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="29"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -2030,13 +2103,15 @@
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
-      <c r="U41" s="7"/>
+      <c r="U41" s="6"/>
       <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
+      <c r="W41" s="7"/>
       <c r="X41" s="6"/>
-      <c r="Y41" s="27"/>
-    </row>
-    <row r="42" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="29"/>
+    </row>
+    <row r="42" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2048,8 +2123,8 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="29"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
@@ -2057,13 +2132,15 @@
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
-      <c r="U42" s="7"/>
+      <c r="U42" s="6"/>
       <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
+      <c r="W42" s="7"/>
       <c r="X42" s="6"/>
-      <c r="Y42" s="27"/>
-    </row>
-    <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="29"/>
+    </row>
+    <row r="43" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2075,8 +2152,8 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="29"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -2084,13 +2161,15 @@
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
-      <c r="U43" s="7"/>
+      <c r="U43" s="6"/>
       <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
+      <c r="W43" s="7"/>
       <c r="X43" s="6"/>
-      <c r="Y43" s="27"/>
-    </row>
-    <row r="44" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="29"/>
+    </row>
+    <row r="44" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2102,8 +2181,8 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="29"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -2111,13 +2190,15 @@
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
-      <c r="U44" s="7"/>
+      <c r="U44" s="6"/>
       <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
+      <c r="W44" s="7"/>
       <c r="X44" s="6"/>
-      <c r="Y44" s="27"/>
-    </row>
-    <row r="45" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="29"/>
+    </row>
+    <row r="45" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2129,8 +2210,8 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="29"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -2138,13 +2219,15 @@
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
-      <c r="U45" s="7"/>
+      <c r="U45" s="6"/>
       <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
+      <c r="W45" s="7"/>
       <c r="X45" s="6"/>
-      <c r="Y45" s="27"/>
-    </row>
-    <row r="46" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="29"/>
+    </row>
+    <row r="46" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2156,8 +2239,8 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="29"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
@@ -2165,13 +2248,15 @@
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
-      <c r="U46" s="7"/>
+      <c r="U46" s="6"/>
       <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
+      <c r="W46" s="7"/>
       <c r="X46" s="6"/>
-      <c r="Y46" s="27"/>
-    </row>
-    <row r="47" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="29"/>
+    </row>
+    <row r="47" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2183,8 +2268,8 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="29"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -2192,13 +2277,15 @@
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
-      <c r="U47" s="7"/>
+      <c r="U47" s="6"/>
       <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
+      <c r="W47" s="7"/>
       <c r="X47" s="6"/>
-      <c r="Y47" s="27"/>
-    </row>
-    <row r="48" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="29"/>
+    </row>
+    <row r="48" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2210,8 +2297,8 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="29"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
@@ -2219,13 +2306,15 @@
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
-      <c r="U48" s="7"/>
+      <c r="U48" s="6"/>
       <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
+      <c r="W48" s="7"/>
       <c r="X48" s="6"/>
-      <c r="Y48" s="27"/>
-    </row>
-    <row r="49" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="29"/>
+    </row>
+    <row r="49" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2237,8 +2326,8 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="29"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -2246,13 +2335,15 @@
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
-      <c r="U49" s="7"/>
+      <c r="U49" s="6"/>
       <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
+      <c r="W49" s="7"/>
       <c r="X49" s="6"/>
-      <c r="Y49" s="27"/>
-    </row>
-    <row r="50" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="29"/>
+    </row>
+    <row r="50" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2264,8 +2355,8 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="29"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
@@ -2273,13 +2364,15 @@
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
-      <c r="U50" s="7"/>
+      <c r="U50" s="6"/>
       <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
+      <c r="W50" s="7"/>
       <c r="X50" s="6"/>
-      <c r="Y50" s="27"/>
-    </row>
-    <row r="51" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="29"/>
+    </row>
+    <row r="51" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2291,8 +2384,8 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="29"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
@@ -2300,13 +2393,15 @@
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
-      <c r="U51" s="7"/>
+      <c r="U51" s="6"/>
       <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
+      <c r="W51" s="7"/>
       <c r="X51" s="6"/>
-      <c r="Y51" s="27"/>
-    </row>
-    <row r="52" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="29"/>
+    </row>
+    <row r="52" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2318,8 +2413,8 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="29"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
@@ -2327,13 +2422,15 @@
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
-      <c r="U52" s="7"/>
+      <c r="U52" s="6"/>
       <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
+      <c r="W52" s="7"/>
       <c r="X52" s="6"/>
-      <c r="Y52" s="27"/>
-    </row>
-    <row r="53" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="29"/>
+    </row>
+    <row r="53" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2345,8 +2442,8 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="29"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
@@ -2354,13 +2451,15 @@
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
-      <c r="U53" s="7"/>
+      <c r="U53" s="6"/>
       <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
+      <c r="W53" s="7"/>
       <c r="X53" s="6"/>
-      <c r="Y53" s="27"/>
-    </row>
-    <row r="54" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="29"/>
+    </row>
+    <row r="54" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2372,8 +2471,8 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="29"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
@@ -2381,13 +2480,15 @@
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
-      <c r="U54" s="7"/>
+      <c r="U54" s="6"/>
       <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
+      <c r="W54" s="7"/>
       <c r="X54" s="6"/>
-      <c r="Y54" s="27"/>
-    </row>
-    <row r="55" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="29"/>
+    </row>
+    <row r="55" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2399,8 +2500,8 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="29"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -2408,13 +2509,15 @@
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
-      <c r="U55" s="7"/>
+      <c r="U55" s="6"/>
       <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
+      <c r="W55" s="7"/>
       <c r="X55" s="6"/>
-      <c r="Y55" s="27"/>
-    </row>
-    <row r="56" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="29"/>
+    </row>
+    <row r="56" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2426,8 +2529,8 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="29"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
@@ -2435,13 +2538,15 @@
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
-      <c r="U56" s="7"/>
+      <c r="U56" s="6"/>
       <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
+      <c r="W56" s="7"/>
       <c r="X56" s="6"/>
-      <c r="Y56" s="27"/>
-    </row>
-    <row r="57" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="29"/>
+    </row>
+    <row r="57" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2453,8 +2558,8 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="29"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
@@ -2462,13 +2567,15 @@
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
-      <c r="U57" s="7"/>
+      <c r="U57" s="6"/>
       <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
+      <c r="W57" s="7"/>
       <c r="X57" s="6"/>
-      <c r="Y57" s="27"/>
-    </row>
-    <row r="58" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="29"/>
+    </row>
+    <row r="58" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2480,8 +2587,8 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="29"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
@@ -2489,13 +2596,15 @@
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
-      <c r="U58" s="7"/>
+      <c r="U58" s="6"/>
       <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
+      <c r="W58" s="7"/>
       <c r="X58" s="6"/>
-      <c r="Y58" s="27"/>
-    </row>
-    <row r="59" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="29"/>
+    </row>
+    <row r="59" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2507,8 +2616,8 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="29"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
@@ -2516,13 +2625,15 @@
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
-      <c r="U59" s="7"/>
+      <c r="U59" s="6"/>
       <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
+      <c r="W59" s="7"/>
       <c r="X59" s="6"/>
-      <c r="Y59" s="27"/>
-    </row>
-    <row r="60" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="29"/>
+    </row>
+    <row r="60" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2534,8 +2645,8 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="29"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
@@ -2543,13 +2654,15 @@
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
-      <c r="U60" s="7"/>
+      <c r="U60" s="6"/>
       <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
+      <c r="W60" s="7"/>
       <c r="X60" s="6"/>
-      <c r="Y60" s="27"/>
-    </row>
-    <row r="61" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="29"/>
+    </row>
+    <row r="61" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2561,8 +2674,8 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="29"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
@@ -2570,13 +2683,15 @@
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
-      <c r="U61" s="7"/>
+      <c r="U61" s="6"/>
       <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
+      <c r="W61" s="7"/>
       <c r="X61" s="6"/>
-      <c r="Y61" s="27"/>
-    </row>
-    <row r="62" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="29"/>
+    </row>
+    <row r="62" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2588,8 +2703,8 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="29"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
@@ -2597,13 +2712,15 @@
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
-      <c r="U62" s="7"/>
+      <c r="U62" s="6"/>
       <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
+      <c r="W62" s="7"/>
       <c r="X62" s="6"/>
-      <c r="Y62" s="27"/>
-    </row>
-    <row r="63" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="29"/>
+    </row>
+    <row r="63" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2615,8 +2732,8 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="29"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
@@ -2624,42 +2741,46 @@
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
-      <c r="U63" s="7"/>
+      <c r="U63" s="6"/>
       <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
+      <c r="W63" s="7"/>
       <c r="X63" s="6"/>
-      <c r="Y63" s="27"/>
-    </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="29"/>
+    </row>
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41"/>
-      <c r="R64" s="41"/>
-      <c r="S64" s="41"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="46"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="10"/>
       <c r="X64" s="11"/>
-      <c r="Y64" s="32"/>
-    </row>
-    <row r="65" spans="1:25" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="35"/>
+    </row>
+    <row r="65" spans="1:27" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -2668,87 +2789,93 @@
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
-      <c r="I65" s="13"/>
+      <c r="I65" s="12"/>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="12"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="30"/>
       <c r="N65" s="12"/>
       <c r="O65" s="12"/>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
-      <c r="R65" s="14"/>
+      <c r="R65" s="12"/>
       <c r="S65" s="14"/>
       <c r="T65" s="14"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="11"/>
+      <c r="U65" s="14"/>
+      <c r="V65" s="14"/>
+      <c r="W65" s="15"/>
       <c r="X65" s="11"/>
-      <c r="Y65" s="32"/>
-    </row>
-    <row r="66" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="37" t="s">
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="35"/>
+    </row>
+    <row r="66" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="38"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="38"/>
-      <c r="W66" s="38"/>
-      <c r="X66" s="38"/>
-      <c r="Y66" s="38"/>
-    </row>
-    <row r="67" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="43"/>
+      <c r="R66" s="43"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="43"/>
+      <c r="V66" s="43"/>
+      <c r="W66" s="43"/>
+      <c r="X66" s="43"/>
+      <c r="Y66" s="43"/>
+      <c r="Z66" s="43"/>
+      <c r="AA66" s="43"/>
+    </row>
+    <row r="67" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
       <c r="M67" s="44"/>
-      <c r="N67" s="39" t="s">
+      <c r="N67" s="49"/>
+      <c r="O67" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="O67" s="39"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="39"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
-    </row>
-    <row r="68" spans="1:25" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="44"/>
+      <c r="V67" s="44"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
+      <c r="Y67" s="44"/>
+      <c r="Z67" s="44"/>
+      <c r="AA67" s="44"/>
+    </row>
+    <row r="68" spans="1:27" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>1</v>
       </c>
@@ -2767,65 +2894,67 @@
       <c r="F68" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="27"/>
+      <c r="H68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="J68" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J68" s="5" t="s">
+      <c r="K68" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="L68" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L68" s="26" t="s">
+      <c r="M68" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="N68" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N68" s="23" t="s">
+      <c r="O68" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="O68" s="23" t="s">
+      <c r="P68" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P68" s="23" t="s">
+      <c r="Q68" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Q68" s="23" t="s">
+      <c r="R68" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R68" s="23" t="s">
+      <c r="S68" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="S68" s="23" t="s">
+      <c r="T68" s="26"/>
+      <c r="U68" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="T68" s="23" t="s">
+      <c r="V68" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="U68" s="24" t="s">
+      <c r="W68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="V68" s="25" t="s">
+      <c r="X68" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="W68" s="25" t="s">
+      <c r="Y68" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="X68" s="25" t="s">
+      <c r="Z68" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="Y68" s="31" t="s">
+      <c r="AA68" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -2837,8 +2966,8 @@
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="31"/>
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
       <c r="P69" s="17"/>
@@ -2846,13 +2975,15 @@
       <c r="R69" s="17"/>
       <c r="S69" s="17"/>
       <c r="T69" s="17"/>
-      <c r="U69" s="18"/>
+      <c r="U69" s="17"/>
       <c r="V69" s="17"/>
-      <c r="W69" s="17"/>
+      <c r="W69" s="18"/>
       <c r="X69" s="17"/>
-      <c r="Y69" s="32"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="17"/>
+      <c r="AA69" s="35"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -2864,8 +2995,8 @@
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="31"/>
       <c r="N70" s="17"/>
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
@@ -2873,13 +3004,15 @@
       <c r="R70" s="17"/>
       <c r="S70" s="17"/>
       <c r="T70" s="17"/>
-      <c r="U70" s="18"/>
+      <c r="U70" s="17"/>
       <c r="V70" s="17"/>
-      <c r="W70" s="17"/>
+      <c r="W70" s="18"/>
       <c r="X70" s="17"/>
-      <c r="Y70" s="32"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y70" s="17"/>
+      <c r="Z70" s="17"/>
+      <c r="AA70" s="35"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -2891,8 +3024,8 @@
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="31"/>
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
@@ -2900,13 +3033,15 @@
       <c r="R71" s="17"/>
       <c r="S71" s="17"/>
       <c r="T71" s="17"/>
-      <c r="U71" s="18"/>
+      <c r="U71" s="17"/>
       <c r="V71" s="17"/>
-      <c r="W71" s="17"/>
+      <c r="W71" s="18"/>
       <c r="X71" s="17"/>
-      <c r="Y71" s="32"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y71" s="17"/>
+      <c r="Z71" s="17"/>
+      <c r="AA71" s="35"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -2918,8 +3053,8 @@
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="31"/>
       <c r="N72" s="17"/>
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
@@ -2927,13 +3062,15 @@
       <c r="R72" s="17"/>
       <c r="S72" s="17"/>
       <c r="T72" s="17"/>
-      <c r="U72" s="18"/>
+      <c r="U72" s="17"/>
       <c r="V72" s="17"/>
-      <c r="W72" s="17"/>
+      <c r="W72" s="18"/>
       <c r="X72" s="17"/>
-      <c r="Y72" s="32"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y72" s="17"/>
+      <c r="Z72" s="17"/>
+      <c r="AA72" s="35"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -2945,8 +3082,8 @@
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="31"/>
       <c r="N73" s="17"/>
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
@@ -2954,13 +3091,15 @@
       <c r="R73" s="17"/>
       <c r="S73" s="17"/>
       <c r="T73" s="17"/>
-      <c r="U73" s="18"/>
+      <c r="U73" s="17"/>
       <c r="V73" s="17"/>
-      <c r="W73" s="17"/>
+      <c r="W73" s="18"/>
       <c r="X73" s="17"/>
-      <c r="Y73" s="32"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y73" s="17"/>
+      <c r="Z73" s="17"/>
+      <c r="AA73" s="35"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -2972,8 +3111,8 @@
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="31"/>
       <c r="N74" s="17"/>
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
@@ -2981,13 +3120,15 @@
       <c r="R74" s="17"/>
       <c r="S74" s="17"/>
       <c r="T74" s="17"/>
-      <c r="U74" s="18"/>
+      <c r="U74" s="17"/>
       <c r="V74" s="17"/>
-      <c r="W74" s="17"/>
+      <c r="W74" s="18"/>
       <c r="X74" s="17"/>
-      <c r="Y74" s="32"/>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="35"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -2999,8 +3140,8 @@
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="31"/>
       <c r="N75" s="17"/>
       <c r="O75" s="17"/>
       <c r="P75" s="17"/>
@@ -3008,13 +3149,15 @@
       <c r="R75" s="17"/>
       <c r="S75" s="17"/>
       <c r="T75" s="17"/>
-      <c r="U75" s="18"/>
+      <c r="U75" s="17"/>
       <c r="V75" s="17"/>
-      <c r="W75" s="17"/>
+      <c r="W75" s="18"/>
       <c r="X75" s="17"/>
-      <c r="Y75" s="32"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y75" s="17"/>
+      <c r="Z75" s="17"/>
+      <c r="AA75" s="35"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -3026,8 +3169,8 @@
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="31"/>
       <c r="N76" s="17"/>
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
@@ -3035,13 +3178,15 @@
       <c r="R76" s="17"/>
       <c r="S76" s="17"/>
       <c r="T76" s="17"/>
-      <c r="U76" s="18"/>
+      <c r="U76" s="17"/>
       <c r="V76" s="17"/>
-      <c r="W76" s="17"/>
+      <c r="W76" s="18"/>
       <c r="X76" s="17"/>
-      <c r="Y76" s="32"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y76" s="17"/>
+      <c r="Z76" s="17"/>
+      <c r="AA76" s="35"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -3053,8 +3198,8 @@
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="31"/>
       <c r="N77" s="17"/>
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
@@ -3062,13 +3207,15 @@
       <c r="R77" s="17"/>
       <c r="S77" s="17"/>
       <c r="T77" s="17"/>
-      <c r="U77" s="18"/>
+      <c r="U77" s="17"/>
       <c r="V77" s="17"/>
-      <c r="W77" s="17"/>
+      <c r="W77" s="18"/>
       <c r="X77" s="17"/>
-      <c r="Y77" s="32"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y77" s="17"/>
+      <c r="Z77" s="17"/>
+      <c r="AA77" s="35"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -3080,8 +3227,8 @@
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="31"/>
       <c r="N78" s="17"/>
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
@@ -3089,13 +3236,15 @@
       <c r="R78" s="17"/>
       <c r="S78" s="17"/>
       <c r="T78" s="17"/>
-      <c r="U78" s="18"/>
+      <c r="U78" s="17"/>
       <c r="V78" s="17"/>
-      <c r="W78" s="17"/>
+      <c r="W78" s="18"/>
       <c r="X78" s="17"/>
-      <c r="Y78" s="32"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y78" s="17"/>
+      <c r="Z78" s="17"/>
+      <c r="AA78" s="35"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -3107,8 +3256,8 @@
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="31"/>
       <c r="N79" s="17"/>
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
@@ -3116,13 +3265,15 @@
       <c r="R79" s="17"/>
       <c r="S79" s="17"/>
       <c r="T79" s="17"/>
-      <c r="U79" s="18"/>
+      <c r="U79" s="17"/>
       <c r="V79" s="17"/>
-      <c r="W79" s="17"/>
+      <c r="W79" s="18"/>
       <c r="X79" s="17"/>
-      <c r="Y79" s="32"/>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y79" s="17"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="35"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -3134,8 +3285,8 @@
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="31"/>
       <c r="N80" s="17"/>
       <c r="O80" s="17"/>
       <c r="P80" s="17"/>
@@ -3143,13 +3294,15 @@
       <c r="R80" s="17"/>
       <c r="S80" s="17"/>
       <c r="T80" s="17"/>
-      <c r="U80" s="18"/>
+      <c r="U80" s="17"/>
       <c r="V80" s="17"/>
-      <c r="W80" s="17"/>
+      <c r="W80" s="18"/>
       <c r="X80" s="17"/>
-      <c r="Y80" s="32"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y80" s="17"/>
+      <c r="Z80" s="17"/>
+      <c r="AA80" s="35"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -3161,8 +3314,8 @@
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="31"/>
       <c r="N81" s="17"/>
       <c r="O81" s="17"/>
       <c r="P81" s="17"/>
@@ -3170,13 +3323,15 @@
       <c r="R81" s="17"/>
       <c r="S81" s="17"/>
       <c r="T81" s="17"/>
-      <c r="U81" s="18"/>
+      <c r="U81" s="17"/>
       <c r="V81" s="17"/>
-      <c r="W81" s="17"/>
+      <c r="W81" s="18"/>
       <c r="X81" s="17"/>
-      <c r="Y81" s="32"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y81" s="17"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="35"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -3188,8 +3343,8 @@
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
       <c r="K82" s="17"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="31"/>
       <c r="N82" s="17"/>
       <c r="O82" s="17"/>
       <c r="P82" s="17"/>
@@ -3197,13 +3352,15 @@
       <c r="R82" s="17"/>
       <c r="S82" s="17"/>
       <c r="T82" s="17"/>
-      <c r="U82" s="18"/>
+      <c r="U82" s="17"/>
       <c r="V82" s="17"/>
-      <c r="W82" s="17"/>
+      <c r="W82" s="18"/>
       <c r="X82" s="17"/>
-      <c r="Y82" s="32"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y82" s="17"/>
+      <c r="Z82" s="17"/>
+      <c r="AA82" s="35"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -3215,8 +3372,8 @@
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="31"/>
       <c r="N83" s="17"/>
       <c r="O83" s="17"/>
       <c r="P83" s="17"/>
@@ -3224,13 +3381,15 @@
       <c r="R83" s="17"/>
       <c r="S83" s="17"/>
       <c r="T83" s="17"/>
-      <c r="U83" s="18"/>
+      <c r="U83" s="17"/>
       <c r="V83" s="17"/>
-      <c r="W83" s="17"/>
+      <c r="W83" s="18"/>
       <c r="X83" s="17"/>
-      <c r="Y83" s="32"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y83" s="17"/>
+      <c r="Z83" s="17"/>
+      <c r="AA83" s="35"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -3242,8 +3401,8 @@
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="31"/>
       <c r="N84" s="17"/>
       <c r="O84" s="17"/>
       <c r="P84" s="17"/>
@@ -3251,13 +3410,15 @@
       <c r="R84" s="17"/>
       <c r="S84" s="17"/>
       <c r="T84" s="17"/>
-      <c r="U84" s="18"/>
+      <c r="U84" s="17"/>
       <c r="V84" s="17"/>
-      <c r="W84" s="17"/>
+      <c r="W84" s="18"/>
       <c r="X84" s="17"/>
-      <c r="Y84" s="32"/>
-    </row>
-    <row r="85" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y84" s="17"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="35"/>
+    </row>
+    <row r="85" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -3269,8 +3430,8 @@
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
       <c r="K85" s="17"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="31"/>
       <c r="N85" s="17"/>
       <c r="O85" s="17"/>
       <c r="P85" s="17"/>
@@ -3278,13 +3439,15 @@
       <c r="R85" s="17"/>
       <c r="S85" s="17"/>
       <c r="T85" s="17"/>
-      <c r="U85" s="18"/>
+      <c r="U85" s="17"/>
       <c r="V85" s="17"/>
-      <c r="W85" s="17"/>
+      <c r="W85" s="18"/>
       <c r="X85" s="17"/>
-      <c r="Y85" s="32"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y85" s="17"/>
+      <c r="Z85" s="17"/>
+      <c r="AA85" s="35"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -3296,8 +3459,8 @@
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
-      <c r="L86" s="29"/>
-      <c r="M86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="31"/>
       <c r="N86" s="17"/>
       <c r="O86" s="17"/>
       <c r="P86" s="17"/>
@@ -3305,13 +3468,15 @@
       <c r="R86" s="17"/>
       <c r="S86" s="17"/>
       <c r="T86" s="17"/>
-      <c r="U86" s="18"/>
+      <c r="U86" s="17"/>
       <c r="V86" s="17"/>
-      <c r="W86" s="17"/>
+      <c r="W86" s="18"/>
       <c r="X86" s="17"/>
-      <c r="Y86" s="32"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y86" s="17"/>
+      <c r="Z86" s="17"/>
+      <c r="AA86" s="35"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -3323,8 +3488,8 @@
       <c r="I87" s="17"/>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="31"/>
       <c r="N87" s="17"/>
       <c r="O87" s="17"/>
       <c r="P87" s="17"/>
@@ -3332,13 +3497,15 @@
       <c r="R87" s="17"/>
       <c r="S87" s="17"/>
       <c r="T87" s="17"/>
-      <c r="U87" s="18"/>
+      <c r="U87" s="17"/>
       <c r="V87" s="17"/>
-      <c r="W87" s="17"/>
+      <c r="W87" s="18"/>
       <c r="X87" s="17"/>
-      <c r="Y87" s="32"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y87" s="17"/>
+      <c r="Z87" s="17"/>
+      <c r="AA87" s="35"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -3350,8 +3517,8 @@
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="31"/>
       <c r="N88" s="17"/>
       <c r="O88" s="17"/>
       <c r="P88" s="17"/>
@@ -3359,13 +3526,15 @@
       <c r="R88" s="17"/>
       <c r="S88" s="17"/>
       <c r="T88" s="17"/>
-      <c r="U88" s="18"/>
+      <c r="U88" s="17"/>
       <c r="V88" s="17"/>
-      <c r="W88" s="17"/>
+      <c r="W88" s="18"/>
       <c r="X88" s="17"/>
-      <c r="Y88" s="32"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y88" s="17"/>
+      <c r="Z88" s="17"/>
+      <c r="AA88" s="35"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -3377,8 +3546,8 @@
       <c r="I89" s="17"/>
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
-      <c r="L89" s="29"/>
-      <c r="M89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="31"/>
       <c r="N89" s="17"/>
       <c r="O89" s="17"/>
       <c r="P89" s="17"/>
@@ -3386,13 +3555,15 @@
       <c r="R89" s="17"/>
       <c r="S89" s="17"/>
       <c r="T89" s="17"/>
-      <c r="U89" s="18"/>
+      <c r="U89" s="17"/>
       <c r="V89" s="17"/>
-      <c r="W89" s="17"/>
+      <c r="W89" s="18"/>
       <c r="X89" s="17"/>
-      <c r="Y89" s="32"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y89" s="17"/>
+      <c r="Z89" s="17"/>
+      <c r="AA89" s="35"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -3404,8 +3575,8 @@
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="31"/>
       <c r="N90" s="17"/>
       <c r="O90" s="17"/>
       <c r="P90" s="17"/>
@@ -3413,13 +3584,15 @@
       <c r="R90" s="17"/>
       <c r="S90" s="17"/>
       <c r="T90" s="17"/>
-      <c r="U90" s="18"/>
+      <c r="U90" s="17"/>
       <c r="V90" s="17"/>
-      <c r="W90" s="17"/>
+      <c r="W90" s="18"/>
       <c r="X90" s="17"/>
-      <c r="Y90" s="32"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y90" s="17"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="35"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -3431,8 +3604,8 @@
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="31"/>
       <c r="N91" s="17"/>
       <c r="O91" s="17"/>
       <c r="P91" s="17"/>
@@ -3440,13 +3613,15 @@
       <c r="R91" s="17"/>
       <c r="S91" s="17"/>
       <c r="T91" s="17"/>
-      <c r="U91" s="18"/>
+      <c r="U91" s="17"/>
       <c r="V91" s="17"/>
-      <c r="W91" s="17"/>
+      <c r="W91" s="18"/>
       <c r="X91" s="17"/>
-      <c r="Y91" s="32"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y91" s="17"/>
+      <c r="Z91" s="17"/>
+      <c r="AA91" s="35"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -3458,8 +3633,8 @@
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
       <c r="K92" s="17"/>
-      <c r="L92" s="29"/>
-      <c r="M92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="31"/>
       <c r="N92" s="17"/>
       <c r="O92" s="17"/>
       <c r="P92" s="17"/>
@@ -3467,13 +3642,15 @@
       <c r="R92" s="17"/>
       <c r="S92" s="17"/>
       <c r="T92" s="17"/>
-      <c r="U92" s="18"/>
+      <c r="U92" s="17"/>
       <c r="V92" s="17"/>
-      <c r="W92" s="17"/>
+      <c r="W92" s="18"/>
       <c r="X92" s="17"/>
-      <c r="Y92" s="32"/>
-    </row>
-    <row r="93" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y92" s="17"/>
+      <c r="Z92" s="17"/>
+      <c r="AA92" s="35"/>
+    </row>
+    <row r="93" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -3485,8 +3662,8 @@
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
       <c r="K93" s="17"/>
-      <c r="L93" s="29"/>
-      <c r="M93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="31"/>
       <c r="N93" s="17"/>
       <c r="O93" s="17"/>
       <c r="P93" s="17"/>
@@ -3494,13 +3671,15 @@
       <c r="R93" s="17"/>
       <c r="S93" s="17"/>
       <c r="T93" s="17"/>
-      <c r="U93" s="18"/>
+      <c r="U93" s="17"/>
       <c r="V93" s="17"/>
-      <c r="W93" s="17"/>
+      <c r="W93" s="18"/>
       <c r="X93" s="17"/>
-      <c r="Y93" s="32"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y93" s="17"/>
+      <c r="Z93" s="17"/>
+      <c r="AA93" s="35"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -3512,8 +3691,8 @@
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
       <c r="K94" s="17"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="31"/>
       <c r="N94" s="17"/>
       <c r="O94" s="17"/>
       <c r="P94" s="17"/>
@@ -3521,13 +3700,15 @@
       <c r="R94" s="17"/>
       <c r="S94" s="17"/>
       <c r="T94" s="17"/>
-      <c r="U94" s="18"/>
+      <c r="U94" s="17"/>
       <c r="V94" s="17"/>
-      <c r="W94" s="17"/>
+      <c r="W94" s="18"/>
       <c r="X94" s="17"/>
-      <c r="Y94" s="32"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y94" s="17"/>
+      <c r="Z94" s="17"/>
+      <c r="AA94" s="35"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -3539,8 +3720,8 @@
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="31"/>
       <c r="N95" s="17"/>
       <c r="O95" s="17"/>
       <c r="P95" s="17"/>
@@ -3548,13 +3729,15 @@
       <c r="R95" s="17"/>
       <c r="S95" s="17"/>
       <c r="T95" s="17"/>
-      <c r="U95" s="18"/>
+      <c r="U95" s="17"/>
       <c r="V95" s="17"/>
-      <c r="W95" s="17"/>
+      <c r="W95" s="18"/>
       <c r="X95" s="17"/>
-      <c r="Y95" s="32"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y95" s="17"/>
+      <c r="Z95" s="17"/>
+      <c r="AA95" s="35"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -3566,8 +3749,8 @@
       <c r="I96" s="17"/>
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="31"/>
       <c r="N96" s="17"/>
       <c r="O96" s="17"/>
       <c r="P96" s="17"/>
@@ -3575,13 +3758,15 @@
       <c r="R96" s="17"/>
       <c r="S96" s="17"/>
       <c r="T96" s="17"/>
-      <c r="U96" s="18"/>
+      <c r="U96" s="17"/>
       <c r="V96" s="17"/>
-      <c r="W96" s="17"/>
+      <c r="W96" s="18"/>
       <c r="X96" s="17"/>
-      <c r="Y96" s="32"/>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y96" s="17"/>
+      <c r="Z96" s="17"/>
+      <c r="AA96" s="35"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
@@ -3593,8 +3778,8 @@
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="31"/>
       <c r="N97" s="17"/>
       <c r="O97" s="17"/>
       <c r="P97" s="17"/>
@@ -3602,13 +3787,15 @@
       <c r="R97" s="17"/>
       <c r="S97" s="17"/>
       <c r="T97" s="17"/>
-      <c r="U97" s="18"/>
+      <c r="U97" s="17"/>
       <c r="V97" s="17"/>
-      <c r="W97" s="17"/>
+      <c r="W97" s="18"/>
       <c r="X97" s="17"/>
-      <c r="Y97" s="32"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y97" s="17"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="35"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
@@ -3620,8 +3807,8 @@
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
       <c r="K98" s="17"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="31"/>
       <c r="N98" s="17"/>
       <c r="O98" s="17"/>
       <c r="P98" s="17"/>
@@ -3629,13 +3816,15 @@
       <c r="R98" s="17"/>
       <c r="S98" s="17"/>
       <c r="T98" s="17"/>
-      <c r="U98" s="18"/>
+      <c r="U98" s="17"/>
       <c r="V98" s="17"/>
-      <c r="W98" s="17"/>
+      <c r="W98" s="18"/>
       <c r="X98" s="17"/>
-      <c r="Y98" s="32"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y98" s="17"/>
+      <c r="Z98" s="17"/>
+      <c r="AA98" s="35"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
@@ -3647,8 +3836,8 @@
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="31"/>
       <c r="N99" s="17"/>
       <c r="O99" s="17"/>
       <c r="P99" s="17"/>
@@ -3656,13 +3845,15 @@
       <c r="R99" s="17"/>
       <c r="S99" s="17"/>
       <c r="T99" s="17"/>
-      <c r="U99" s="18"/>
+      <c r="U99" s="17"/>
       <c r="V99" s="17"/>
-      <c r="W99" s="17"/>
+      <c r="W99" s="18"/>
       <c r="X99" s="17"/>
-      <c r="Y99" s="32"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y99" s="17"/>
+      <c r="Z99" s="17"/>
+      <c r="AA99" s="35"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
@@ -3674,8 +3865,8 @@
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="31"/>
       <c r="N100" s="17"/>
       <c r="O100" s="17"/>
       <c r="P100" s="17"/>
@@ -3683,13 +3874,15 @@
       <c r="R100" s="17"/>
       <c r="S100" s="17"/>
       <c r="T100" s="17"/>
-      <c r="U100" s="18"/>
+      <c r="U100" s="17"/>
       <c r="V100" s="17"/>
-      <c r="W100" s="17"/>
+      <c r="W100" s="18"/>
       <c r="X100" s="17"/>
-      <c r="Y100" s="32"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y100" s="17"/>
+      <c r="Z100" s="17"/>
+      <c r="AA100" s="35"/>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
@@ -3701,8 +3894,8 @@
       <c r="I101" s="17"/>
       <c r="J101" s="17"/>
       <c r="K101" s="17"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="31"/>
       <c r="N101" s="17"/>
       <c r="O101" s="17"/>
       <c r="P101" s="17"/>
@@ -3710,13 +3903,15 @@
       <c r="R101" s="17"/>
       <c r="S101" s="17"/>
       <c r="T101" s="17"/>
-      <c r="U101" s="18"/>
+      <c r="U101" s="17"/>
       <c r="V101" s="17"/>
-      <c r="W101" s="17"/>
+      <c r="W101" s="18"/>
       <c r="X101" s="17"/>
-      <c r="Y101" s="32"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y101" s="17"/>
+      <c r="Z101" s="17"/>
+      <c r="AA101" s="35"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
@@ -3728,8 +3923,8 @@
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
       <c r="K102" s="17"/>
-      <c r="L102" s="29"/>
-      <c r="M102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="31"/>
       <c r="N102" s="17"/>
       <c r="O102" s="17"/>
       <c r="P102" s="17"/>
@@ -3737,13 +3932,15 @@
       <c r="R102" s="17"/>
       <c r="S102" s="17"/>
       <c r="T102" s="17"/>
-      <c r="U102" s="18"/>
+      <c r="U102" s="17"/>
       <c r="V102" s="17"/>
-      <c r="W102" s="17"/>
+      <c r="W102" s="18"/>
       <c r="X102" s="17"/>
-      <c r="Y102" s="32"/>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y102" s="17"/>
+      <c r="Z102" s="17"/>
+      <c r="AA102" s="35"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
@@ -3755,8 +3952,8 @@
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
       <c r="K103" s="17"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="31"/>
       <c r="N103" s="17"/>
       <c r="O103" s="17"/>
       <c r="P103" s="17"/>
@@ -3764,13 +3961,15 @@
       <c r="R103" s="17"/>
       <c r="S103" s="17"/>
       <c r="T103" s="17"/>
-      <c r="U103" s="18"/>
+      <c r="U103" s="17"/>
       <c r="V103" s="17"/>
-      <c r="W103" s="17"/>
+      <c r="W103" s="18"/>
       <c r="X103" s="17"/>
-      <c r="Y103" s="32"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y103" s="17"/>
+      <c r="Z103" s="17"/>
+      <c r="AA103" s="35"/>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
@@ -3782,8 +3981,8 @@
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
       <c r="K104" s="17"/>
-      <c r="L104" s="29"/>
-      <c r="M104" s="17"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="31"/>
       <c r="N104" s="17"/>
       <c r="O104" s="17"/>
       <c r="P104" s="17"/>
@@ -3791,13 +3990,15 @@
       <c r="R104" s="17"/>
       <c r="S104" s="17"/>
       <c r="T104" s="17"/>
-      <c r="U104" s="18"/>
+      <c r="U104" s="17"/>
       <c r="V104" s="17"/>
-      <c r="W104" s="17"/>
+      <c r="W104" s="18"/>
       <c r="X104" s="17"/>
-      <c r="Y104" s="32"/>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y104" s="17"/>
+      <c r="Z104" s="17"/>
+      <c r="AA104" s="35"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -3809,8 +4010,8 @@
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
-      <c r="L105" s="29"/>
-      <c r="M105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="31"/>
       <c r="N105" s="17"/>
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
@@ -3818,13 +4019,15 @@
       <c r="R105" s="17"/>
       <c r="S105" s="17"/>
       <c r="T105" s="17"/>
-      <c r="U105" s="18"/>
+      <c r="U105" s="17"/>
       <c r="V105" s="17"/>
-      <c r="W105" s="17"/>
+      <c r="W105" s="18"/>
       <c r="X105" s="17"/>
-      <c r="Y105" s="32"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y105" s="17"/>
+      <c r="Z105" s="17"/>
+      <c r="AA105" s="35"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
@@ -3836,8 +4039,8 @@
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
       <c r="K106" s="17"/>
-      <c r="L106" s="29"/>
-      <c r="M106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="31"/>
       <c r="N106" s="17"/>
       <c r="O106" s="17"/>
       <c r="P106" s="17"/>
@@ -3845,13 +4048,15 @@
       <c r="R106" s="17"/>
       <c r="S106" s="17"/>
       <c r="T106" s="17"/>
-      <c r="U106" s="18"/>
+      <c r="U106" s="17"/>
       <c r="V106" s="17"/>
-      <c r="W106" s="17"/>
+      <c r="W106" s="18"/>
       <c r="X106" s="17"/>
-      <c r="Y106" s="32"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y106" s="17"/>
+      <c r="Z106" s="17"/>
+      <c r="AA106" s="35"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
@@ -3863,8 +4068,8 @@
       <c r="I107" s="17"/>
       <c r="J107" s="17"/>
       <c r="K107" s="17"/>
-      <c r="L107" s="29"/>
-      <c r="M107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="31"/>
       <c r="N107" s="17"/>
       <c r="O107" s="17"/>
       <c r="P107" s="17"/>
@@ -3872,13 +4077,15 @@
       <c r="R107" s="17"/>
       <c r="S107" s="17"/>
       <c r="T107" s="17"/>
-      <c r="U107" s="18"/>
+      <c r="U107" s="17"/>
       <c r="V107" s="17"/>
-      <c r="W107" s="17"/>
+      <c r="W107" s="18"/>
       <c r="X107" s="17"/>
-      <c r="Y107" s="32"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y107" s="17"/>
+      <c r="Z107" s="17"/>
+      <c r="AA107" s="35"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -3890,8 +4097,8 @@
       <c r="I108" s="17"/>
       <c r="J108" s="17"/>
       <c r="K108" s="17"/>
-      <c r="L108" s="29"/>
-      <c r="M108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="31"/>
       <c r="N108" s="17"/>
       <c r="O108" s="17"/>
       <c r="P108" s="17"/>
@@ -3899,13 +4106,15 @@
       <c r="R108" s="17"/>
       <c r="S108" s="17"/>
       <c r="T108" s="17"/>
-      <c r="U108" s="18"/>
+      <c r="U108" s="17"/>
       <c r="V108" s="17"/>
-      <c r="W108" s="17"/>
+      <c r="W108" s="18"/>
       <c r="X108" s="17"/>
-      <c r="Y108" s="32"/>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y108" s="17"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="35"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
@@ -3917,8 +4126,8 @@
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
       <c r="K109" s="17"/>
-      <c r="L109" s="29"/>
-      <c r="M109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="31"/>
       <c r="N109" s="17"/>
       <c r="O109" s="17"/>
       <c r="P109" s="17"/>
@@ -3926,13 +4135,15 @@
       <c r="R109" s="17"/>
       <c r="S109" s="17"/>
       <c r="T109" s="17"/>
-      <c r="U109" s="18"/>
+      <c r="U109" s="17"/>
       <c r="V109" s="17"/>
-      <c r="W109" s="17"/>
+      <c r="W109" s="18"/>
       <c r="X109" s="17"/>
-      <c r="Y109" s="32"/>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y109" s="17"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="35"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -3944,8 +4155,8 @@
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
       <c r="K110" s="17"/>
-      <c r="L110" s="29"/>
-      <c r="M110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="31"/>
       <c r="N110" s="17"/>
       <c r="O110" s="17"/>
       <c r="P110" s="17"/>
@@ -3953,13 +4164,15 @@
       <c r="R110" s="17"/>
       <c r="S110" s="17"/>
       <c r="T110" s="17"/>
-      <c r="U110" s="18"/>
+      <c r="U110" s="17"/>
       <c r="V110" s="17"/>
-      <c r="W110" s="17"/>
+      <c r="W110" s="18"/>
       <c r="X110" s="17"/>
-      <c r="Y110" s="32"/>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y110" s="17"/>
+      <c r="Z110" s="17"/>
+      <c r="AA110" s="35"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -3971,8 +4184,8 @@
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
       <c r="K111" s="17"/>
-      <c r="L111" s="29"/>
-      <c r="M111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="31"/>
       <c r="N111" s="17"/>
       <c r="O111" s="17"/>
       <c r="P111" s="17"/>
@@ -3980,13 +4193,15 @@
       <c r="R111" s="17"/>
       <c r="S111" s="17"/>
       <c r="T111" s="17"/>
-      <c r="U111" s="18"/>
+      <c r="U111" s="17"/>
       <c r="V111" s="17"/>
-      <c r="W111" s="17"/>
+      <c r="W111" s="18"/>
       <c r="X111" s="17"/>
-      <c r="Y111" s="32"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y111" s="17"/>
+      <c r="Z111" s="17"/>
+      <c r="AA111" s="35"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
@@ -3998,8 +4213,8 @@
       <c r="I112" s="17"/>
       <c r="J112" s="17"/>
       <c r="K112" s="17"/>
-      <c r="L112" s="29"/>
-      <c r="M112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="31"/>
       <c r="N112" s="17"/>
       <c r="O112" s="17"/>
       <c r="P112" s="17"/>
@@ -4007,13 +4222,15 @@
       <c r="R112" s="17"/>
       <c r="S112" s="17"/>
       <c r="T112" s="17"/>
-      <c r="U112" s="18"/>
+      <c r="U112" s="17"/>
       <c r="V112" s="17"/>
-      <c r="W112" s="17"/>
+      <c r="W112" s="18"/>
       <c r="X112" s="17"/>
-      <c r="Y112" s="32"/>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y112" s="17"/>
+      <c r="Z112" s="17"/>
+      <c r="AA112" s="35"/>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
@@ -4025,8 +4242,8 @@
       <c r="I113" s="17"/>
       <c r="J113" s="17"/>
       <c r="K113" s="17"/>
-      <c r="L113" s="29"/>
-      <c r="M113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="31"/>
       <c r="N113" s="17"/>
       <c r="O113" s="17"/>
       <c r="P113" s="17"/>
@@ -4034,13 +4251,15 @@
       <c r="R113" s="17"/>
       <c r="S113" s="17"/>
       <c r="T113" s="17"/>
-      <c r="U113" s="18"/>
+      <c r="U113" s="17"/>
       <c r="V113" s="17"/>
-      <c r="W113" s="17"/>
+      <c r="W113" s="18"/>
       <c r="X113" s="17"/>
-      <c r="Y113" s="32"/>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y113" s="17"/>
+      <c r="Z113" s="17"/>
+      <c r="AA113" s="35"/>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
@@ -4052,8 +4271,8 @@
       <c r="I114" s="17"/>
       <c r="J114" s="17"/>
       <c r="K114" s="17"/>
-      <c r="L114" s="29"/>
-      <c r="M114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="31"/>
       <c r="N114" s="17"/>
       <c r="O114" s="17"/>
       <c r="P114" s="17"/>
@@ -4061,13 +4280,15 @@
       <c r="R114" s="17"/>
       <c r="S114" s="17"/>
       <c r="T114" s="17"/>
-      <c r="U114" s="18"/>
+      <c r="U114" s="17"/>
       <c r="V114" s="17"/>
-      <c r="W114" s="17"/>
+      <c r="W114" s="18"/>
       <c r="X114" s="17"/>
-      <c r="Y114" s="32"/>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y114" s="17"/>
+      <c r="Z114" s="17"/>
+      <c r="AA114" s="35"/>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
@@ -4079,8 +4300,8 @@
       <c r="I115" s="17"/>
       <c r="J115" s="17"/>
       <c r="K115" s="17"/>
-      <c r="L115" s="29"/>
-      <c r="M115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="31"/>
       <c r="N115" s="17"/>
       <c r="O115" s="17"/>
       <c r="P115" s="17"/>
@@ -4088,13 +4309,15 @@
       <c r="R115" s="17"/>
       <c r="S115" s="17"/>
       <c r="T115" s="17"/>
-      <c r="U115" s="18"/>
+      <c r="U115" s="17"/>
       <c r="V115" s="17"/>
-      <c r="W115" s="17"/>
+      <c r="W115" s="18"/>
       <c r="X115" s="17"/>
-      <c r="Y115" s="32"/>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y115" s="17"/>
+      <c r="Z115" s="17"/>
+      <c r="AA115" s="35"/>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
@@ -4106,8 +4329,8 @@
       <c r="I116" s="17"/>
       <c r="J116" s="17"/>
       <c r="K116" s="17"/>
-      <c r="L116" s="29"/>
-      <c r="M116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="31"/>
       <c r="N116" s="17"/>
       <c r="O116" s="17"/>
       <c r="P116" s="17"/>
@@ -4115,13 +4338,15 @@
       <c r="R116" s="17"/>
       <c r="S116" s="17"/>
       <c r="T116" s="17"/>
-      <c r="U116" s="18"/>
+      <c r="U116" s="17"/>
       <c r="V116" s="17"/>
-      <c r="W116" s="17"/>
+      <c r="W116" s="18"/>
       <c r="X116" s="17"/>
-      <c r="Y116" s="32"/>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y116" s="17"/>
+      <c r="Z116" s="17"/>
+      <c r="AA116" s="35"/>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
@@ -4133,8 +4358,8 @@
       <c r="I117" s="17"/>
       <c r="J117" s="17"/>
       <c r="K117" s="17"/>
-      <c r="L117" s="29"/>
-      <c r="M117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="31"/>
       <c r="N117" s="17"/>
       <c r="O117" s="17"/>
       <c r="P117" s="17"/>
@@ -4142,13 +4367,15 @@
       <c r="R117" s="17"/>
       <c r="S117" s="17"/>
       <c r="T117" s="17"/>
-      <c r="U117" s="18"/>
+      <c r="U117" s="17"/>
       <c r="V117" s="17"/>
-      <c r="W117" s="17"/>
+      <c r="W117" s="18"/>
       <c r="X117" s="17"/>
-      <c r="Y117" s="32"/>
-    </row>
-    <row r="118" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y117" s="17"/>
+      <c r="Z117" s="17"/>
+      <c r="AA117" s="35"/>
+    </row>
+    <row r="118" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
@@ -4160,8 +4387,8 @@
       <c r="I118" s="17"/>
       <c r="J118" s="17"/>
       <c r="K118" s="17"/>
-      <c r="L118" s="29"/>
-      <c r="M118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="31"/>
       <c r="N118" s="17"/>
       <c r="O118" s="17"/>
       <c r="P118" s="17"/>
@@ -4169,13 +4396,15 @@
       <c r="R118" s="17"/>
       <c r="S118" s="17"/>
       <c r="T118" s="17"/>
-      <c r="U118" s="18"/>
+      <c r="U118" s="17"/>
       <c r="V118" s="17"/>
-      <c r="W118" s="17"/>
+      <c r="W118" s="18"/>
       <c r="X118" s="17"/>
-      <c r="Y118" s="32"/>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y118" s="17"/>
+      <c r="Z118" s="17"/>
+      <c r="AA118" s="35"/>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
@@ -4187,8 +4416,8 @@
       <c r="I119" s="17"/>
       <c r="J119" s="17"/>
       <c r="K119" s="17"/>
-      <c r="L119" s="29"/>
-      <c r="M119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="31"/>
       <c r="N119" s="17"/>
       <c r="O119" s="17"/>
       <c r="P119" s="17"/>
@@ -4196,13 +4425,15 @@
       <c r="R119" s="17"/>
       <c r="S119" s="17"/>
       <c r="T119" s="17"/>
-      <c r="U119" s="18"/>
+      <c r="U119" s="17"/>
       <c r="V119" s="17"/>
-      <c r="W119" s="17"/>
+      <c r="W119" s="18"/>
       <c r="X119" s="17"/>
-      <c r="Y119" s="32"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y119" s="17"/>
+      <c r="Z119" s="17"/>
+      <c r="AA119" s="35"/>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
@@ -4214,8 +4445,8 @@
       <c r="I120" s="17"/>
       <c r="J120" s="17"/>
       <c r="K120" s="17"/>
-      <c r="L120" s="29"/>
-      <c r="M120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="31"/>
       <c r="N120" s="17"/>
       <c r="O120" s="17"/>
       <c r="P120" s="17"/>
@@ -4223,13 +4454,15 @@
       <c r="R120" s="17"/>
       <c r="S120" s="17"/>
       <c r="T120" s="17"/>
-      <c r="U120" s="18"/>
+      <c r="U120" s="17"/>
       <c r="V120" s="17"/>
-      <c r="W120" s="17"/>
+      <c r="W120" s="18"/>
       <c r="X120" s="17"/>
-      <c r="Y120" s="32"/>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y120" s="17"/>
+      <c r="Z120" s="17"/>
+      <c r="AA120" s="35"/>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
@@ -4241,8 +4474,8 @@
       <c r="I121" s="17"/>
       <c r="J121" s="17"/>
       <c r="K121" s="17"/>
-      <c r="L121" s="29"/>
-      <c r="M121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="31"/>
       <c r="N121" s="17"/>
       <c r="O121" s="17"/>
       <c r="P121" s="17"/>
@@ -4250,13 +4483,15 @@
       <c r="R121" s="17"/>
       <c r="S121" s="17"/>
       <c r="T121" s="17"/>
-      <c r="U121" s="18"/>
+      <c r="U121" s="17"/>
       <c r="V121" s="17"/>
-      <c r="W121" s="17"/>
+      <c r="W121" s="18"/>
       <c r="X121" s="17"/>
-      <c r="Y121" s="32"/>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y121" s="17"/>
+      <c r="Z121" s="17"/>
+      <c r="AA121" s="35"/>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
@@ -4268,8 +4503,8 @@
       <c r="I122" s="17"/>
       <c r="J122" s="17"/>
       <c r="K122" s="17"/>
-      <c r="L122" s="29"/>
-      <c r="M122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="31"/>
       <c r="N122" s="17"/>
       <c r="O122" s="17"/>
       <c r="P122" s="17"/>
@@ -4277,13 +4512,15 @@
       <c r="R122" s="17"/>
       <c r="S122" s="17"/>
       <c r="T122" s="17"/>
-      <c r="U122" s="18"/>
+      <c r="U122" s="17"/>
       <c r="V122" s="17"/>
-      <c r="W122" s="17"/>
+      <c r="W122" s="18"/>
       <c r="X122" s="17"/>
-      <c r="Y122" s="32"/>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y122" s="17"/>
+      <c r="Z122" s="17"/>
+      <c r="AA122" s="35"/>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -4295,8 +4532,8 @@
       <c r="I123" s="17"/>
       <c r="J123" s="17"/>
       <c r="K123" s="17"/>
-      <c r="L123" s="29"/>
-      <c r="M123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="31"/>
       <c r="N123" s="17"/>
       <c r="O123" s="17"/>
       <c r="P123" s="17"/>
@@ -4304,13 +4541,15 @@
       <c r="R123" s="17"/>
       <c r="S123" s="17"/>
       <c r="T123" s="17"/>
-      <c r="U123" s="18"/>
+      <c r="U123" s="17"/>
       <c r="V123" s="17"/>
-      <c r="W123" s="17"/>
+      <c r="W123" s="18"/>
       <c r="X123" s="17"/>
-      <c r="Y123" s="32"/>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y123" s="17"/>
+      <c r="Z123" s="17"/>
+      <c r="AA123" s="35"/>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
@@ -4322,8 +4561,8 @@
       <c r="I124" s="17"/>
       <c r="J124" s="17"/>
       <c r="K124" s="17"/>
-      <c r="L124" s="29"/>
-      <c r="M124" s="17"/>
+      <c r="L124" s="17"/>
+      <c r="M124" s="31"/>
       <c r="N124" s="17"/>
       <c r="O124" s="17"/>
       <c r="P124" s="17"/>
@@ -4331,13 +4570,15 @@
       <c r="R124" s="17"/>
       <c r="S124" s="17"/>
       <c r="T124" s="17"/>
-      <c r="U124" s="18"/>
+      <c r="U124" s="17"/>
       <c r="V124" s="17"/>
-      <c r="W124" s="17"/>
+      <c r="W124" s="18"/>
       <c r="X124" s="17"/>
-      <c r="Y124" s="32"/>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y124" s="17"/>
+      <c r="Z124" s="17"/>
+      <c r="AA124" s="35"/>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
@@ -4349,8 +4590,8 @@
       <c r="I125" s="17"/>
       <c r="J125" s="17"/>
       <c r="K125" s="17"/>
-      <c r="L125" s="29"/>
-      <c r="M125" s="17"/>
+      <c r="L125" s="17"/>
+      <c r="M125" s="31"/>
       <c r="N125" s="17"/>
       <c r="O125" s="17"/>
       <c r="P125" s="17"/>
@@ -4358,13 +4599,15 @@
       <c r="R125" s="17"/>
       <c r="S125" s="17"/>
       <c r="T125" s="17"/>
-      <c r="U125" s="18"/>
+      <c r="U125" s="17"/>
       <c r="V125" s="17"/>
-      <c r="W125" s="17"/>
+      <c r="W125" s="18"/>
       <c r="X125" s="17"/>
-      <c r="Y125" s="32"/>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y125" s="17"/>
+      <c r="Z125" s="17"/>
+      <c r="AA125" s="35"/>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
@@ -4376,8 +4619,8 @@
       <c r="I126" s="17"/>
       <c r="J126" s="17"/>
       <c r="K126" s="17"/>
-      <c r="L126" s="29"/>
-      <c r="M126" s="17"/>
+      <c r="L126" s="17"/>
+      <c r="M126" s="31"/>
       <c r="N126" s="17"/>
       <c r="O126" s="17"/>
       <c r="P126" s="17"/>
@@ -4385,13 +4628,15 @@
       <c r="R126" s="17"/>
       <c r="S126" s="17"/>
       <c r="T126" s="17"/>
-      <c r="U126" s="18"/>
+      <c r="U126" s="17"/>
       <c r="V126" s="17"/>
-      <c r="W126" s="17"/>
+      <c r="W126" s="18"/>
       <c r="X126" s="17"/>
-      <c r="Y126" s="32"/>
-    </row>
-    <row r="127" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y126" s="17"/>
+      <c r="Z126" s="17"/>
+      <c r="AA126" s="35"/>
+    </row>
+    <row r="127" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
@@ -4403,8 +4648,8 @@
       <c r="I127" s="17"/>
       <c r="J127" s="17"/>
       <c r="K127" s="17"/>
-      <c r="L127" s="29"/>
-      <c r="M127" s="17"/>
+      <c r="L127" s="17"/>
+      <c r="M127" s="31"/>
       <c r="N127" s="17"/>
       <c r="O127" s="17"/>
       <c r="P127" s="17"/>
@@ -4412,13 +4657,15 @@
       <c r="R127" s="17"/>
       <c r="S127" s="17"/>
       <c r="T127" s="17"/>
-      <c r="U127" s="18"/>
+      <c r="U127" s="17"/>
       <c r="V127" s="17"/>
-      <c r="W127" s="17"/>
+      <c r="W127" s="18"/>
       <c r="X127" s="17"/>
-      <c r="Y127" s="32"/>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y127" s="17"/>
+      <c r="Z127" s="17"/>
+      <c r="AA127" s="35"/>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
@@ -4430,8 +4677,8 @@
       <c r="I128" s="17"/>
       <c r="J128" s="17"/>
       <c r="K128" s="17"/>
-      <c r="L128" s="29"/>
-      <c r="M128" s="17"/>
+      <c r="L128" s="17"/>
+      <c r="M128" s="31"/>
       <c r="N128" s="17"/>
       <c r="O128" s="17"/>
       <c r="P128" s="17"/>
@@ -4439,65 +4686,69 @@
       <c r="R128" s="17"/>
       <c r="S128" s="17"/>
       <c r="T128" s="17"/>
-      <c r="U128" s="18"/>
+      <c r="U128" s="17"/>
       <c r="V128" s="17"/>
-      <c r="W128" s="17"/>
+      <c r="W128" s="18"/>
       <c r="X128" s="17"/>
-      <c r="Y128" s="32"/>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A129" s="40" t="s">
+      <c r="Y128" s="17"/>
+      <c r="Z128" s="17"/>
+      <c r="AA128" s="35"/>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A129" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B129" s="40"/>
-      <c r="C129" s="40"/>
-      <c r="D129" s="40"/>
-      <c r="E129" s="40"/>
-      <c r="F129" s="40"/>
-      <c r="G129" s="40"/>
-      <c r="H129" s="40"/>
-      <c r="I129" s="40"/>
-      <c r="J129" s="40"/>
-      <c r="K129" s="40"/>
-      <c r="L129" s="40"/>
-      <c r="M129" s="40"/>
-      <c r="N129" s="40"/>
-      <c r="O129" s="40"/>
-      <c r="P129" s="40"/>
-      <c r="Q129" s="40"/>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A130" s="40" t="s">
+      <c r="B129" s="45"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="45"/>
+      <c r="E129" s="45"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="45"/>
+      <c r="H129" s="45"/>
+      <c r="I129" s="45"/>
+      <c r="J129" s="45"/>
+      <c r="K129" s="45"/>
+      <c r="L129" s="45"/>
+      <c r="M129" s="45"/>
+      <c r="N129" s="45"/>
+      <c r="O129" s="45"/>
+      <c r="P129" s="45"/>
+      <c r="Q129" s="45"/>
+      <c r="R129" s="45"/>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A130" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B130" s="40"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="40"/>
-      <c r="E130" s="40"/>
-      <c r="F130" s="40"/>
-      <c r="G130" s="40"/>
-      <c r="H130" s="40"/>
-      <c r="I130" s="40"/>
-      <c r="J130" s="40"/>
-      <c r="K130" s="40"/>
-      <c r="L130" s="40"/>
-      <c r="M130" s="40"/>
-      <c r="N130" s="40"/>
-      <c r="O130" s="40"/>
-      <c r="P130" s="40"/>
-      <c r="Q130" s="40"/>
+      <c r="B130" s="45"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="45"/>
+      <c r="E130" s="45"/>
+      <c r="F130" s="45"/>
+      <c r="G130" s="45"/>
+      <c r="H130" s="45"/>
+      <c r="I130" s="45"/>
+      <c r="J130" s="45"/>
+      <c r="K130" s="45"/>
+      <c r="L130" s="45"/>
+      <c r="M130" s="45"/>
+      <c r="N130" s="45"/>
+      <c r="O130" s="45"/>
+      <c r="P130" s="45"/>
+      <c r="Q130" s="45"/>
+      <c r="R130" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A66:Y66"/>
-    <mergeCell ref="N67:Y67"/>
-    <mergeCell ref="A129:Q129"/>
-    <mergeCell ref="A130:Q130"/>
-    <mergeCell ref="A64:S64"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B67:M67"/>
-    <mergeCell ref="N2:Y2"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A66:AA66"/>
+    <mergeCell ref="O67:AA67"/>
+    <mergeCell ref="A129:R129"/>
+    <mergeCell ref="A130:R130"/>
+    <mergeCell ref="A64:U64"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="O2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
